--- a/prot/356379915/Переход трубопровода через р. Енисей/Cрезы КД/1073.xlsx
+++ b/prot/356379915/Переход трубопровода через р. Енисей/Cрезы КД/1073.xlsx
@@ -2859,26 +2859,26 @@
     </row>
     <row r="66">
       <c r="F66" s="60" t="n">
-        <v>0.001437443364167963</v>
+        <v>0.001423178767917412</v>
       </c>
       <c r="G66" s="100" t="n">
         <v>0.02837379201712209</v>
       </c>
       <c r="H66" s="100" t="n"/>
       <c r="J66" s="60" t="n">
-        <v>0.001437443364167963</v>
+        <v>0.001423178767917412</v>
       </c>
       <c r="K66" s="100" t="n">
         <v>0.02837379201712209</v>
       </c>
       <c r="L66" s="57" t="n">
-        <v>0.002331462802477612</v>
+        <v>0.002310652363895545</v>
       </c>
       <c r="M66" s="60" t="n">
         <v>0.02837379201712209</v>
       </c>
       <c r="N66" s="100" t="n">
-        <v>0.002674709024887926</v>
+        <v>0.002684626274504206</v>
       </c>
       <c r="O66" s="57" t="n">
         <v>0.02837379201712209</v>
@@ -2886,26 +2886,26 @@
     </row>
     <row r="67">
       <c r="F67" s="60" t="n">
-        <v>0.002876069878353225</v>
+        <v>0.002830137207942068</v>
       </c>
       <c r="G67" s="100" t="n">
         <v>0.05674758403424419</v>
       </c>
       <c r="H67" s="100" t="n"/>
       <c r="J67" s="60" t="n">
-        <v>0.002876069878353225</v>
+        <v>0.002830137207942068</v>
       </c>
       <c r="K67" s="100" t="n">
         <v>0.05674758403424419</v>
       </c>
       <c r="L67" s="57" t="n">
-        <v>0.004598249139418141</v>
+        <v>0.004604261131655136</v>
       </c>
       <c r="M67" s="60" t="n">
         <v>0.05674758403424419</v>
       </c>
       <c r="N67" s="100" t="n">
-        <v>0.005352712589207785</v>
+        <v>0.005346815760116018</v>
       </c>
       <c r="O67" s="57" t="n">
         <v>0.05674758403424419</v>
@@ -2913,26 +2913,26 @@
     </row>
     <row r="68">
       <c r="F68" s="60" t="n">
-        <v>0.004252542934328731</v>
+        <v>0.004309460334979402</v>
       </c>
       <c r="G68" s="100" t="n">
         <v>0.08512137605136628</v>
       </c>
       <c r="H68" s="100" t="n"/>
       <c r="J68" s="60" t="n">
-        <v>0.004252542934328731</v>
+        <v>0.004309460334979402</v>
       </c>
       <c r="K68" s="100" t="n">
         <v>0.08512137605136628</v>
       </c>
       <c r="L68" s="57" t="n">
-        <v>0.006901636597159327</v>
+        <v>0.006934934270962086</v>
       </c>
       <c r="M68" s="60" t="n">
         <v>0.08512137605136628</v>
       </c>
       <c r="N68" s="100" t="n">
-        <v>0.007964051973195206</v>
+        <v>0.007978526219511596</v>
       </c>
       <c r="O68" s="57" t="n">
         <v>0.08512137605136628</v>
@@ -2940,26 +2940,26 @@
     </row>
     <row r="69">
       <c r="F69" s="60" t="n">
-        <v>0.005734618804701857</v>
+        <v>0.005699811665688244</v>
       </c>
       <c r="G69" s="100" t="n">
         <v>0.1134951680684884</v>
       </c>
       <c r="H69" s="100" t="n"/>
       <c r="J69" s="60" t="n">
-        <v>0.005734618804701857</v>
+        <v>0.005699811665688244</v>
       </c>
       <c r="K69" s="100" t="n">
         <v>0.1134951680684884</v>
       </c>
       <c r="L69" s="57" t="n">
-        <v>0.009249488838115254</v>
+        <v>0.009182892518480824</v>
       </c>
       <c r="M69" s="60" t="n">
         <v>0.1134951680684884</v>
       </c>
       <c r="N69" s="100" t="n">
-        <v>0.01077757389823707</v>
+        <v>0.01075505807532989</v>
       </c>
       <c r="O69" s="57" t="n">
         <v>0.1134951680684884</v>
@@ -2967,26 +2967,26 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="F70" s="60" t="n">
-        <v>0.00717765065868826</v>
+        <v>0.007108463327485562</v>
       </c>
       <c r="G70" s="100" t="n">
         <v>0.1418689600856105</v>
       </c>
       <c r="H70" s="100" t="n"/>
       <c r="J70" s="60" t="n">
-        <v>0.00717765065868826</v>
+        <v>0.007108463327485562</v>
       </c>
       <c r="K70" s="100" t="n">
         <v>0.1418689600856105</v>
       </c>
       <c r="L70" s="57" t="n">
-        <v>0.01150884446067045</v>
+        <v>0.01155624878284119</v>
       </c>
       <c r="M70" s="60" t="n">
         <v>0.1418689600856105</v>
       </c>
       <c r="N70" s="100" t="n">
-        <v>0.01335824299688689</v>
+        <v>0.01336494423246274</v>
       </c>
       <c r="O70" s="57" t="n">
         <v>0.1418689600856105</v>
@@ -2994,26 +2994,26 @@
     </row>
     <row r="71">
       <c r="F71" s="60" t="n">
-        <v>0.008597043671284964</v>
+        <v>0.0086449762126621</v>
       </c>
       <c r="G71" s="100" t="n">
         <v>0.1702427521027326</v>
       </c>
       <c r="H71" s="100" t="n"/>
       <c r="J71" s="60" t="n">
-        <v>0.008597043671284964</v>
+        <v>0.0086449762126621</v>
       </c>
       <c r="K71" s="100" t="n">
         <v>0.1702427521027326</v>
       </c>
       <c r="L71" s="57" t="n">
-        <v>0.01385660122176813</v>
+        <v>0.0138108149155382</v>
       </c>
       <c r="M71" s="60" t="n">
         <v>0.1702427521027326</v>
       </c>
       <c r="N71" s="100" t="n">
-        <v>0.01610089162933532</v>
+        <v>0.01613949130959743</v>
       </c>
       <c r="O71" s="57" t="n">
         <v>0.1702427521027326</v>
@@ -3021,26 +3021,26 @@
     </row>
     <row r="72">
       <c r="F72" s="60" t="n">
-        <v>0.009953137753323934</v>
+        <v>0.009993082120749733</v>
       </c>
       <c r="G72" s="100" t="n">
         <v>0.1986165441198547</v>
       </c>
       <c r="H72" s="100" t="n"/>
       <c r="J72" s="60" t="n">
-        <v>0.009953137753323934</v>
+        <v>0.009993082120749733</v>
       </c>
       <c r="K72" s="100" t="n">
         <v>0.1986165441198547</v>
       </c>
       <c r="L72" s="57" t="n">
-        <v>0.01613065859673872</v>
+        <v>0.01610475889402444</v>
       </c>
       <c r="M72" s="60" t="n">
         <v>0.1986165441198547</v>
       </c>
       <c r="N72" s="100" t="n">
-        <v>0.01874149049238818</v>
+        <v>0.01859888403689944</v>
       </c>
       <c r="O72" s="57" t="n">
         <v>0.1986165441198547</v>
@@ -3051,26 +3051,26 @@
       <c r="B73" s="59" t="n"/>
       <c r="D73" s="101" t="n"/>
       <c r="F73" s="60" t="n">
-        <v>0.01138887598797229</v>
+        <v>0.0114950154274834</v>
       </c>
       <c r="G73" s="100" t="n">
         <v>0.2269903361369768</v>
       </c>
       <c r="H73" s="100" t="n"/>
       <c r="J73" s="60" t="n">
-        <v>0.01138887598797229</v>
+        <v>0.0114950154274834</v>
       </c>
       <c r="K73" s="100" t="n">
         <v>0.2269903361369768</v>
       </c>
       <c r="L73" s="57" t="n">
-        <v>0.01851115766415713</v>
+        <v>0.01832430708209838</v>
       </c>
       <c r="M73" s="60" t="n">
         <v>0.2269903361369768</v>
       </c>
       <c r="N73" s="100" t="n">
-        <v>0.02138484702443888</v>
+        <v>0.02152209433787291</v>
       </c>
       <c r="O73" s="57" t="n">
         <v>0.2269903361369768</v>
@@ -3078,26 +3078,26 @@
     </row>
     <row r="74">
       <c r="F74" s="60" t="n">
-        <v>0.01289484612563098</v>
+        <v>0.01287430270852353</v>
       </c>
       <c r="G74" s="100" t="n">
         <v>0.2553641281540989</v>
       </c>
       <c r="H74" s="100" t="n"/>
       <c r="J74" s="60" t="n">
-        <v>0.01289484612563098</v>
+        <v>0.01287430270852353</v>
       </c>
       <c r="K74" s="100" t="n">
         <v>0.2553641281540989</v>
       </c>
       <c r="L74" s="57" t="n">
-        <v>0.0208107872611457</v>
+        <v>0.0208274375559841</v>
       </c>
       <c r="M74" s="60" t="n">
         <v>0.2553641281540989</v>
       </c>
       <c r="N74" s="100" t="n">
-        <v>0.02393043693790721</v>
+        <v>0.02392319918099485</v>
       </c>
       <c r="O74" s="57" t="n">
         <v>0.2553641281540989</v>
@@ -3105,26 +3105,26 @@
     </row>
     <row r="75">
       <c r="F75" s="60" t="n">
-        <v>0.01438060181699084</v>
+        <v>0.01424079041043676</v>
       </c>
       <c r="G75" s="100" t="n">
         <v>0.283737920171221</v>
       </c>
       <c r="H75" s="100" t="n"/>
       <c r="J75" s="60" t="n">
-        <v>0.01438060181699084</v>
+        <v>0.01424079041043676</v>
       </c>
       <c r="K75" s="100" t="n">
         <v>0.283737920171221</v>
       </c>
       <c r="L75" s="57" t="n">
-        <v>0.02334312897005357</v>
+        <v>0.0229384283984507</v>
       </c>
       <c r="M75" s="60" t="n">
         <v>0.283737920171221</v>
       </c>
       <c r="N75" s="100" t="n">
-        <v>0.02700526929619312</v>
+        <v>0.02671307410527739</v>
       </c>
       <c r="O75" s="57" t="n">
         <v>0.283737920171221</v>
@@ -3134,14 +3134,14 @@
       <c r="A76" s="101" t="n"/>
       <c r="C76" s="102" t="n"/>
       <c r="F76" s="60" t="n">
-        <v>0.01568549937648878</v>
+        <v>0.01561644865387092</v>
       </c>
       <c r="G76" s="100" t="n">
         <v>0.312111712188343</v>
       </c>
       <c r="H76" s="100" t="n"/>
       <c r="J76" s="60" t="n">
-        <v>0.01568549937648878</v>
+        <v>0.01561644865387092</v>
       </c>
       <c r="K76" s="100" t="n">
         <v>0.312111712188343</v>
@@ -3153,7 +3153,7 @@
         <v>0.312111712188343</v>
       </c>
       <c r="N76" s="100" t="n">
-        <v>0.0296590488508651</v>
+        <v>0.02937301507292377</v>
       </c>
       <c r="O76" s="57" t="n">
         <v>0.312111712188343</v>
@@ -3161,25 +3161,25 @@
     </row>
     <row r="77" ht="15" customHeight="1">
       <c r="F77" t="n">
-        <v>0.01727092198954678</v>
+        <v>0.0171459440647612</v>
       </c>
       <c r="G77" t="n">
         <v>0.3404855042054651</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01727092198954678</v>
+        <v>0.0171459440647612</v>
       </c>
       <c r="K77" t="n">
         <v>0.3404855042054651</v>
       </c>
       <c r="L77" t="n">
-        <v>0.02794874329924642</v>
+        <v>0.02771840413790817</v>
       </c>
       <c r="M77" t="n">
         <v>0.3404855042054651</v>
       </c>
       <c r="N77" t="n">
-        <v>0.03193759829713912</v>
+        <v>0.0322046027953928</v>
       </c>
       <c r="O77" t="n">
         <v>0.3404855042054651</v>
@@ -3188,25 +3188,25 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" s="101" t="n"/>
       <c r="F78" t="n">
-        <v>0.01859359097123233</v>
+        <v>0.01852125680186793</v>
       </c>
       <c r="G78" t="n">
         <v>0.3688592962225872</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01859359097123233</v>
+        <v>0.01852125680186793</v>
       </c>
       <c r="K78" t="n">
         <v>0.3688592962225872</v>
       </c>
       <c r="L78" t="n">
-        <v>0.03005877405787948</v>
+        <v>0.02989642420799695</v>
       </c>
       <c r="M78" t="n">
         <v>0.3688592962225872</v>
       </c>
       <c r="N78" t="n">
-        <v>0.03484352308489686</v>
+        <v>0.03485397823285192</v>
       </c>
       <c r="O78" t="n">
         <v>0.3688592962225872</v>
@@ -3216,25 +3216,25 @@
       <c r="A79" s="101" t="n"/>
       <c r="D79" s="57" t="n"/>
       <c r="F79" t="n">
-        <v>0.02005212325451045</v>
+        <v>0.01990830884328176</v>
       </c>
       <c r="G79" t="n">
         <v>0.3972330882397093</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02005212325451045</v>
+        <v>0.01990830884328176</v>
       </c>
       <c r="K79" t="n">
         <v>0.3972330882397093</v>
       </c>
       <c r="L79" t="n">
-        <v>0.0323520329674794</v>
+        <v>0.03247183132814761</v>
       </c>
       <c r="M79" t="n">
         <v>0.3972330882397093</v>
       </c>
       <c r="N79" t="n">
-        <v>0.03736295460479157</v>
+        <v>0.03749806925730512</v>
       </c>
       <c r="O79" t="n">
         <v>0.3972330882397093</v>
@@ -3242,25 +3242,25 @@
     </row>
     <row r="80" ht="15" customHeight="1">
       <c r="F80" t="n">
-        <v>0.02153974281264884</v>
+        <v>0.0216253964275714</v>
       </c>
       <c r="G80" t="n">
         <v>0.4256068802568314</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02153974281264884</v>
+        <v>0.0216253964275714</v>
       </c>
       <c r="K80" t="n">
         <v>0.4256068802568314</v>
       </c>
       <c r="L80" t="n">
-        <v>0.03504752074461105</v>
+        <v>0.03477330522130469</v>
       </c>
       <c r="M80" t="n">
         <v>0.4256068802568314</v>
       </c>
       <c r="N80" t="n">
-        <v>0.04003893049437251</v>
+        <v>0.0404855510636495</v>
       </c>
       <c r="O80" t="n">
         <v>0.4256068802568314</v>
@@ -3268,25 +3268,25 @@
     </row>
     <row r="81" ht="15" customHeight="1">
       <c r="F81" t="n">
-        <v>0.02306760278660962</v>
+        <v>0.02294177533909762</v>
       </c>
       <c r="G81" t="n">
         <v>0.4539806722739535</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02306760278660962</v>
+        <v>0.02294177533909762</v>
       </c>
       <c r="K81" t="n">
         <v>0.4539806722739535</v>
       </c>
       <c r="L81" t="n">
-        <v>0.03730325639781006</v>
+        <v>0.03709187498666829</v>
       </c>
       <c r="M81" t="n">
         <v>0.4539806722739535</v>
       </c>
       <c r="N81" t="n">
-        <v>0.04287578631775282</v>
+        <v>0.0433486494112913</v>
       </c>
       <c r="O81" t="n">
         <v>0.4539806722739535</v>
@@ -3296,25 +3296,25 @@
       <c r="A82" s="101" t="n"/>
       <c r="B82" s="101" t="n"/>
       <c r="F82" t="n">
-        <v>0.02458961947773717</v>
+        <v>0.02426805916754683</v>
       </c>
       <c r="G82" t="n">
         <v>0.4823544642910756</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02458961947773717</v>
+        <v>0.02426805916754683</v>
       </c>
       <c r="K82" t="n">
         <v>0.4823544642910756</v>
       </c>
       <c r="L82" t="n">
-        <v>0.03923156373579492</v>
+        <v>0.03959880434248126</v>
       </c>
       <c r="M82" t="n">
         <v>0.4823544642910756</v>
       </c>
       <c r="N82" t="n">
-        <v>0.04616304489400003</v>
+        <v>0.04573276961189433</v>
       </c>
       <c r="O82" t="n">
         <v>0.4823544642910756</v>
@@ -3322,25 +3322,25 @@
     </row>
     <row r="83" ht="15" customHeight="1">
       <c r="F83" t="n">
-        <v>0.02566931831423654</v>
+        <v>0.02572620036529548</v>
       </c>
       <c r="G83" t="n">
         <v>0.5107282563081977</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02566931831423654</v>
+        <v>0.02572620036529548</v>
       </c>
       <c r="K83" t="n">
         <v>0.5107282563081977</v>
       </c>
       <c r="L83" t="n">
-        <v>0.04225503833278563</v>
+        <v>0.04225084719627177</v>
       </c>
       <c r="M83" t="n">
         <v>0.5107282563081977</v>
       </c>
       <c r="N83" t="n">
-        <v>0.04903948538638709</v>
+        <v>0.04868483089528284</v>
       </c>
       <c r="O83" t="n">
         <v>0.5107282563081977</v>
@@ -3348,25 +3348,25 @@
     </row>
     <row r="84" ht="15" customHeight="1">
       <c r="F84" t="n">
-        <v>0.02736654308453732</v>
+        <v>0.02752247000934926</v>
       </c>
       <c r="G84" t="n">
         <v>0.5391020483253198</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02736654308453732</v>
+        <v>0.02752247000934926</v>
       </c>
       <c r="K84" t="n">
         <v>0.5391020483253198</v>
       </c>
       <c r="L84" t="n">
-        <v>0.04437851796601974</v>
+        <v>0.04417453996577624</v>
       </c>
       <c r="M84" t="n">
         <v>0.5391020483253198</v>
       </c>
       <c r="N84" t="n">
-        <v>0.05150950269829332</v>
+        <v>0.05153520347800507</v>
       </c>
       <c r="O84" t="n">
         <v>0.5391020483253198</v>
@@ -3377,25 +3377,25 @@
       <c r="B85" s="57" t="n"/>
       <c r="D85" s="101" t="n"/>
       <c r="F85" t="n">
-        <v>0.02910825553123549</v>
+        <v>0.02881971215761103</v>
       </c>
       <c r="G85" t="n">
         <v>0.5674758403424419</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02910825553123549</v>
+        <v>0.02881971215761103</v>
       </c>
       <c r="K85" t="n">
         <v>0.5674758403424419</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04719342657904003</v>
+        <v>0.04651990294897247</v>
       </c>
       <c r="M85" t="n">
         <v>0.5674758403424419</v>
       </c>
       <c r="N85" t="n">
-        <v>0.05415264521056309</v>
+        <v>0.05441289020156299</v>
       </c>
       <c r="O85" t="n">
         <v>0.5674758403424419</v>
@@ -3406,25 +3406,25 @@
       <c r="B86" s="57" t="n"/>
       <c r="D86" s="101" t="n"/>
       <c r="F86" t="n">
-        <v>0.03052102699085255</v>
+        <v>0.0300931621264948</v>
       </c>
       <c r="G86" t="n">
         <v>0.595849632359564</v>
       </c>
       <c r="J86" t="n">
-        <v>0.03052102699085255</v>
+        <v>0.0300931621264948</v>
       </c>
       <c r="K86" t="n">
         <v>0.595849632359564</v>
       </c>
       <c r="L86" t="n">
-        <v>0.04944464139883254</v>
+        <v>0.0490166983226588</v>
       </c>
       <c r="M86" t="n">
         <v>0.595849632359564</v>
       </c>
       <c r="N86" t="n">
-        <v>0.05705294235176507</v>
+        <v>0.05679065618864482</v>
       </c>
       <c r="O86" t="n">
         <v>0.595849632359564</v>
@@ -3432,25 +3432,25 @@
     </row>
     <row r="87" ht="15" customHeight="1">
       <c r="F87" t="n">
-        <v>0.03183373321388133</v>
+        <v>0.03152825156768655</v>
       </c>
       <c r="G87" t="n">
         <v>0.6242234243766861</v>
       </c>
       <c r="J87" t="n">
-        <v>0.03183373321388133</v>
+        <v>0.03152825156768655</v>
       </c>
       <c r="K87" t="n">
         <v>0.6242234243766861</v>
       </c>
       <c r="L87" t="n">
-        <v>0.05163298184634903</v>
+        <v>0.05112748412197918</v>
       </c>
       <c r="M87" t="n">
         <v>0.6242234243766861</v>
       </c>
       <c r="N87" t="n">
-        <v>0.06013891067104127</v>
+        <v>0.05994757589857424</v>
       </c>
       <c r="O87" t="n">
         <v>0.6242234243766861</v>
@@ -3461,25 +3461,25 @@
       <c r="C88" s="59" t="n"/>
       <c r="D88" s="59" t="n"/>
       <c r="F88" t="n">
-        <v>0.0329461842407662</v>
+        <v>0.03296614960845073</v>
       </c>
       <c r="G88" t="n">
         <v>0.6525972163938082</v>
       </c>
       <c r="J88" t="n">
-        <v>0.0329461842407662</v>
+        <v>0.03296614960845073</v>
       </c>
       <c r="K88" t="n">
         <v>0.6525972163938082</v>
       </c>
       <c r="L88" t="n">
-        <v>0.05433305639795366</v>
+        <v>0.05425214744868638</v>
       </c>
       <c r="M88" t="n">
         <v>0.6525972163938082</v>
       </c>
       <c r="N88" t="n">
-        <v>0.0626566485401055</v>
+        <v>0.06263163840197952</v>
       </c>
       <c r="O88" t="n">
         <v>0.6525972163938082</v>
@@ -3489,25 +3489,25 @@
       <c r="A89" s="57" t="n"/>
       <c r="B89" s="57" t="n"/>
       <c r="F89" t="n">
-        <v>0.03455990938768268</v>
+        <v>0.03497633564800219</v>
       </c>
       <c r="G89" t="n">
         <v>0.6809710084109303</v>
       </c>
       <c r="J89" t="n">
-        <v>0.03455990938768268</v>
+        <v>0.03497633564800219</v>
       </c>
       <c r="K89" t="n">
         <v>0.6809710084109303</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05644301436016896</v>
+        <v>0.05631926049172928</v>
       </c>
       <c r="M89" t="n">
         <v>0.6809710084109303</v>
       </c>
       <c r="N89" t="n">
-        <v>0.06521894205835917</v>
+        <v>0.06553845097266228</v>
       </c>
       <c r="O89" t="n">
         <v>0.6809710084109303</v>
@@ -3515,25 +3515,25 @@
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.03588111498831128</v>
+        <v>0.03597135016331458</v>
       </c>
       <c r="G90" t="n">
         <v>0.7093448004280524</v>
       </c>
       <c r="J90" t="n">
-        <v>0.03588111498831128</v>
+        <v>0.03597135016331458</v>
       </c>
       <c r="K90" t="n">
         <v>0.7093448004280524</v>
       </c>
       <c r="L90" t="n">
-        <v>0.05891168396535031</v>
+        <v>0.05819203582474667</v>
       </c>
       <c r="M90" t="n">
         <v>0.7093448004280524</v>
       </c>
       <c r="N90" t="n">
-        <v>0.06746859551006389</v>
+        <v>0.06766527718173576</v>
       </c>
       <c r="O90" t="n">
         <v>0.7093448004280524</v>
@@ -3541,25 +3541,25 @@
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.03763930816438464</v>
+        <v>0.03760935248737358</v>
       </c>
       <c r="G91" t="n">
         <v>0.7377185924451745</v>
       </c>
       <c r="J91" t="n">
-        <v>0.03763930816438464</v>
+        <v>0.03760935248737358</v>
       </c>
       <c r="K91" t="n">
         <v>0.7377185924451745</v>
       </c>
       <c r="L91" t="n">
-        <v>0.06106741564762584</v>
+        <v>0.06059397777658769</v>
       </c>
       <c r="M91" t="n">
         <v>0.7377185924451745</v>
       </c>
       <c r="N91" t="n">
-        <v>0.07023931379898746</v>
+        <v>0.07062628788082101</v>
       </c>
       <c r="O91" t="n">
         <v>0.7377185924451745</v>
@@ -3567,25 +3567,25 @@
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.03855724486177979</v>
+        <v>0.03884009873324094</v>
       </c>
       <c r="G92" t="n">
         <v>0.7660923844622965</v>
       </c>
       <c r="J92" t="n">
-        <v>0.03855724486177979</v>
+        <v>0.03884009873324094</v>
       </c>
       <c r="K92" t="n">
         <v>0.7660923844622965</v>
       </c>
       <c r="L92" t="n">
-        <v>0.06309743152128507</v>
+        <v>0.06251331235629606</v>
       </c>
       <c r="M92" t="n">
         <v>0.7660923844622965</v>
       </c>
       <c r="N92" t="n">
-        <v>0.07231855491888045</v>
+        <v>0.07351257918211375</v>
       </c>
       <c r="O92" t="n">
         <v>0.7660923844622965</v>
@@ -3593,25 +3593,25 @@
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.04003893121133935</v>
+        <v>0.03989094994525009</v>
       </c>
       <c r="G93" t="n">
         <v>0.7944661764794186</v>
       </c>
       <c r="J93" t="n">
-        <v>0.04003893121133935</v>
+        <v>0.03989094994525009</v>
       </c>
       <c r="K93" t="n">
         <v>0.7944661764794186</v>
       </c>
       <c r="L93" t="n">
-        <v>0.0645070728527835</v>
+        <v>0.06429312979709084</v>
       </c>
       <c r="M93" t="n">
         <v>0.7944661764794186</v>
       </c>
       <c r="N93" t="n">
-        <v>0.07455735644240004</v>
+        <v>0.07529383672980607</v>
       </c>
       <c r="O93" t="n">
         <v>0.7944661764794186</v>
@@ -3619,25 +3619,25 @@
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.04126292206571463</v>
+        <v>0.04106513693897663</v>
       </c>
       <c r="G94" t="n">
         <v>0.8228399684965407</v>
       </c>
       <c r="J94" t="n">
-        <v>0.04126292206571463</v>
+        <v>0.04106513693897663</v>
       </c>
       <c r="K94" t="n">
         <v>0.8228399684965407</v>
       </c>
       <c r="L94" t="n">
-        <v>0.06686657734724306</v>
+        <v>0.06635227043926806</v>
       </c>
       <c r="M94" t="n">
         <v>0.8228399684965407</v>
       </c>
       <c r="N94" t="n">
-        <v>0.07778911516621687</v>
+        <v>0.07669741961148048</v>
       </c>
       <c r="O94" t="n">
         <v>0.8228399684965407</v>
@@ -3645,25 +3645,25 @@
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.04261456143352148</v>
+        <v>0.04233035123881256</v>
       </c>
       <c r="G95" t="n">
         <v>0.8512137605136628</v>
       </c>
       <c r="J95" t="n">
-        <v>0.04261456143352148</v>
+        <v>0.04233035123881256</v>
       </c>
       <c r="K95" t="n">
         <v>0.8512137605136628</v>
       </c>
       <c r="L95" t="n">
-        <v>0.06814244994689396</v>
+        <v>0.06886444361434339</v>
       </c>
       <c r="M95" t="n">
         <v>0.8512137605136628</v>
       </c>
       <c r="N95" t="n">
-        <v>0.08014509740727965</v>
+        <v>0.07902123278923624</v>
       </c>
       <c r="O95" t="n">
         <v>0.8512137605136628</v>
@@ -3671,25 +3671,25 @@
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.04328737226220174</v>
+        <v>0.04381100982988966</v>
       </c>
       <c r="G96" t="n">
         <v>0.8795875525307849</v>
       </c>
       <c r="J96" t="n">
-        <v>0.04328737226220174</v>
+        <v>0.04381100982988966</v>
       </c>
       <c r="K96" t="n">
         <v>0.8795875525307849</v>
       </c>
       <c r="L96" t="n">
-        <v>0.07020358756959359</v>
+        <v>0.07098166259555382</v>
       </c>
       <c r="M96" t="n">
         <v>0.8795875525307849</v>
       </c>
       <c r="N96" t="n">
-        <v>0.08131298433555509</v>
+        <v>0.08118999403959529</v>
       </c>
       <c r="O96" t="n">
         <v>0.8795875525307849</v>
@@ -3697,25 +3697,25 @@
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.04475100261257641</v>
+        <v>0.04529373803566168</v>
       </c>
       <c r="G97" t="n">
         <v>0.907961344547907</v>
       </c>
       <c r="J97" t="n">
-        <v>0.04475100261257641</v>
+        <v>0.04529373803566168</v>
       </c>
       <c r="K97" t="n">
         <v>0.907961344547907</v>
       </c>
       <c r="L97" t="n">
-        <v>0.07278068100955448</v>
+        <v>0.07342051117227585</v>
       </c>
       <c r="M97" t="n">
         <v>0.907961344547907</v>
       </c>
       <c r="N97" t="n">
-        <v>0.08359893109499353</v>
+        <v>0.08510757195254004</v>
       </c>
       <c r="O97" t="n">
         <v>0.907961344547907</v>
@@ -3723,25 +3723,25 @@
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.04604734320271599</v>
+        <v>0.04589991799186187</v>
       </c>
       <c r="G98" t="n">
         <v>0.9363351365650291</v>
       </c>
       <c r="J98" t="n">
-        <v>0.04604734320271599</v>
+        <v>0.04589991799186187</v>
       </c>
       <c r="K98" t="n">
         <v>0.9363351365650291</v>
       </c>
       <c r="L98" t="n">
-        <v>0.07532914532493346</v>
+        <v>0.07458981892588831</v>
       </c>
       <c r="M98" t="n">
         <v>0.9363351365650291</v>
       </c>
       <c r="N98" t="n">
-        <v>0.08706897808743037</v>
+        <v>0.08639375634445766</v>
       </c>
       <c r="O98" t="n">
         <v>0.9363351365650291</v>
@@ -3749,25 +3749,25 @@
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.04725929276761691</v>
+        <v>0.04742951133086196</v>
       </c>
       <c r="G99" t="n">
         <v>0.9647089285821512</v>
       </c>
       <c r="J99" t="n">
-        <v>0.04725929276761691</v>
+        <v>0.04742951133086196</v>
       </c>
       <c r="K99" t="n">
         <v>0.9647089285821512</v>
       </c>
       <c r="L99" t="n">
-        <v>0.07662964118939139</v>
+        <v>0.0770281950343452</v>
       </c>
       <c r="M99" t="n">
         <v>0.9647089285821512</v>
       </c>
       <c r="N99" t="n">
-        <v>0.08801903835150716</v>
+        <v>0.08809011459121767</v>
       </c>
       <c r="O99" t="n">
         <v>0.9647089285821512</v>
@@ -3775,25 +3775,25 @@
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.04896487018173053</v>
+        <v>0.0485963486790754</v>
       </c>
       <c r="G100" t="n">
         <v>0.9930827205992733</v>
       </c>
       <c r="J100" t="n">
-        <v>0.04896487018173053</v>
+        <v>0.0485963486790754</v>
       </c>
       <c r="K100" t="n">
         <v>0.9930827205992733</v>
       </c>
       <c r="L100" t="n">
-        <v>0.07827880972483615</v>
+        <v>0.07834955069155204</v>
       </c>
       <c r="M100" t="n">
         <v>0.9930827205992733</v>
       </c>
       <c r="N100" t="n">
-        <v>0.09080299234055855</v>
+        <v>0.09114922088851572</v>
       </c>
       <c r="O100" t="n">
         <v>0.9930827205992733</v>
@@ -3801,25 +3801,25 @@
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.04965861351413431</v>
+        <v>0.04921638651766063</v>
       </c>
       <c r="G101" t="n">
         <v>1.021456512616395</v>
       </c>
       <c r="J101" t="n">
-        <v>0.04965861351413431</v>
+        <v>0.04921638651766063</v>
       </c>
       <c r="K101" t="n">
         <v>1.021456512616395</v>
       </c>
       <c r="L101" t="n">
-        <v>0.07996432084247418</v>
+        <v>0.08061672918133804</v>
       </c>
       <c r="M101" t="n">
         <v>1.021456512616395</v>
       </c>
       <c r="N101" t="n">
-        <v>0.09273036990467887</v>
+        <v>0.09394411820186052</v>
       </c>
       <c r="O101" t="n">
         <v>1.021456512616395</v>
@@ -3827,25 +3827,25 @@
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.05101949211734755</v>
+        <v>0.05110089537561217</v>
       </c>
       <c r="G102" t="n">
         <v>1.049830304633518</v>
       </c>
       <c r="J102" t="n">
-        <v>0.05101949211734755</v>
+        <v>0.05110089537561217</v>
       </c>
       <c r="K102" t="n">
         <v>1.049830304633518</v>
       </c>
       <c r="L102" t="n">
-        <v>0.08261940690429791</v>
+        <v>0.08316371523487123</v>
       </c>
       <c r="M102" t="n">
         <v>1.049830304633518</v>
       </c>
       <c r="N102" t="n">
-        <v>0.09488167826399725</v>
+        <v>0.09576118601213707</v>
       </c>
       <c r="O102" t="n">
         <v>1.049830304633518</v>
@@ -3853,25 +3853,25 @@
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.05221470296091395</v>
+        <v>0.05227196163228968</v>
       </c>
       <c r="G103" t="n">
         <v>1.07820409665064</v>
       </c>
       <c r="J103" t="n">
-        <v>0.05221470296091395</v>
+        <v>0.05227196163228968</v>
       </c>
       <c r="K103" t="n">
         <v>1.07820409665064</v>
       </c>
       <c r="L103" t="n">
-        <v>0.08499368425327283</v>
+        <v>0.0843102246658098</v>
       </c>
       <c r="M103" t="n">
         <v>1.07820409665064</v>
       </c>
       <c r="N103" t="n">
-        <v>0.09723188196945942</v>
+        <v>0.09701670226889327</v>
       </c>
       <c r="O103" t="n">
         <v>1.07820409665064</v>
@@ -3879,25 +3879,25 @@
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.05371538941157239</v>
+        <v>0.05342802751061886</v>
       </c>
       <c r="G104" t="n">
         <v>1.106577888667762</v>
       </c>
       <c r="J104" t="n">
-        <v>0.05371538941157239</v>
+        <v>0.05342802751061886</v>
       </c>
       <c r="K104" t="n">
         <v>1.106577888667762</v>
       </c>
       <c r="L104" t="n">
-        <v>0.0870028805640071</v>
+        <v>0.08551056464713487</v>
       </c>
       <c r="M104" t="n">
         <v>1.106577888667762</v>
       </c>
       <c r="N104" t="n">
-        <v>0.09959208010083066</v>
+        <v>0.1004720101258179</v>
       </c>
       <c r="O104" t="n">
         <v>1.106577888667762</v>
@@ -3905,25 +3905,25 @@
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.0542190238405632</v>
+        <v>0.05425707609310822</v>
       </c>
       <c r="G105" t="n">
         <v>1.134951680684884</v>
       </c>
       <c r="J105" t="n">
-        <v>0.0542190238405632</v>
+        <v>0.05425707609310822</v>
       </c>
       <c r="K105" t="n">
         <v>1.134951680684884</v>
       </c>
       <c r="L105" t="n">
-        <v>0.08765916852065993</v>
+        <v>0.08832004886234161</v>
       </c>
       <c r="M105" t="n">
         <v>1.134951680684884</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1018578809594281</v>
+        <v>0.1024911730392</v>
       </c>
       <c r="O105" t="n">
         <v>1.134951680684884</v>
@@ -3931,25 +3931,25 @@
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.05504286204795493</v>
+        <v>0.05580303060648012</v>
       </c>
       <c r="G106" t="n">
         <v>1.163325472702006</v>
       </c>
       <c r="J106" t="n">
-        <v>0.05504286204795493</v>
+        <v>0.05580303060648012</v>
       </c>
       <c r="K106" t="n">
         <v>1.163325472702006</v>
       </c>
       <c r="L106" t="n">
-        <v>0.0902400625552614</v>
+        <v>0.09031201715512606</v>
       </c>
       <c r="M106" t="n">
         <v>1.163325472702006</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1046357339351588</v>
+        <v>0.1035931299700815</v>
       </c>
       <c r="O106" t="n">
         <v>1.163325472702006</v>
@@ -3957,25 +3957,25 @@
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.05658087103616895</v>
+        <v>0.05606588211195497</v>
       </c>
       <c r="G107" t="n">
         <v>1.191699264719128</v>
       </c>
       <c r="J107" t="n">
-        <v>0.05658087103616895</v>
+        <v>0.05606588211195497</v>
       </c>
       <c r="K107" t="n">
         <v>1.191699264719128</v>
       </c>
       <c r="L107" t="n">
-        <v>0.09239563478072364</v>
+        <v>0.09154249796235515</v>
       </c>
       <c r="M107" t="n">
         <v>1.191699264719128</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1064332251684311</v>
+        <v>0.1060397763392542</v>
       </c>
       <c r="O107" t="n">
         <v>1.191699264719128</v>
@@ -3983,25 +3983,25 @@
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.05719579925701472</v>
+        <v>0.05798593987395644</v>
       </c>
       <c r="G108" t="n">
         <v>1.22007305673625</v>
       </c>
       <c r="J108" t="n">
-        <v>0.05719579925701472</v>
+        <v>0.05798593987395644</v>
       </c>
       <c r="K108" t="n">
         <v>1.22007305673625</v>
       </c>
       <c r="L108" t="n">
-        <v>0.09378871451498001</v>
+        <v>0.09344280318752245</v>
       </c>
       <c r="M108" t="n">
         <v>1.22007305673625</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1081327769670458</v>
+        <v>0.1078510118637041</v>
       </c>
       <c r="O108" t="n">
         <v>1.22007305673625</v>
@@ -4009,25 +4009,25 @@
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.05869040504991348</v>
+        <v>0.05842611322290998</v>
       </c>
       <c r="G109" t="n">
         <v>1.248446848753372</v>
       </c>
       <c r="J109" t="n">
-        <v>0.05869040504991348</v>
+        <v>0.05842611322290998</v>
       </c>
       <c r="K109" t="n">
         <v>1.248446848753372</v>
       </c>
       <c r="L109" t="n">
-        <v>0.09451750039372123</v>
+        <v>0.09468886572481379</v>
       </c>
       <c r="M109" t="n">
         <v>1.248446848753372</v>
       </c>
       <c r="N109" t="n">
-        <v>0.109331024835516</v>
+        <v>0.1094193107140548</v>
       </c>
       <c r="O109" t="n">
         <v>1.248446848753372</v>
@@ -4035,19 +4035,19 @@
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.06026307783686471</v>
+        <v>0.05945630319307488</v>
       </c>
       <c r="G110" t="n">
         <v>1.276820640770494</v>
       </c>
       <c r="J110" t="n">
-        <v>0.06026307783686471</v>
+        <v>0.05945630319307488</v>
       </c>
       <c r="K110" t="n">
         <v>1.276820640770494</v>
       </c>
       <c r="L110" t="n">
-        <v>0.09710436881588264</v>
+        <v>0.09619377317854295</v>
       </c>
       <c r="M110" t="n">
         <v>1.276820640770494</v>
@@ -4061,25 +4061,25 @@
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.06122282098520976</v>
+        <v>0.06092509190340395</v>
       </c>
       <c r="G111" t="n">
         <v>1.305194432787616</v>
       </c>
       <c r="J111" t="n">
-        <v>0.06122282098520976</v>
+        <v>0.06092509190340395</v>
       </c>
       <c r="K111" t="n">
         <v>1.305194432787616</v>
       </c>
       <c r="L111" t="n">
-        <v>0.0977245413051199</v>
+        <v>0.09775408914062841</v>
       </c>
       <c r="M111" t="n">
         <v>1.305194432787616</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1149015382398783</v>
+        <v>0.1130519705535845</v>
       </c>
       <c r="O111" t="n">
         <v>1.305194432787616</v>
@@ -4087,25 +4087,25 @@
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.06215514247780682</v>
+        <v>0.06169217339588851</v>
       </c>
       <c r="G112" t="n">
         <v>1.333568224804738</v>
       </c>
       <c r="J112" t="n">
-        <v>0.06215514247780682</v>
+        <v>0.06169217339588851</v>
       </c>
       <c r="K112" t="n">
         <v>1.333568224804738</v>
       </c>
       <c r="L112" t="n">
-        <v>0.1004424174361959</v>
+        <v>0.1010527967411977</v>
       </c>
       <c r="M112" t="n">
         <v>1.333568224804738</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1154912998352657</v>
+        <v>0.1159784580750047</v>
       </c>
       <c r="O112" t="n">
         <v>1.333568224804738</v>
@@ -4113,25 +4113,25 @@
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.06239399005492299</v>
+        <v>0.06245038715349629</v>
       </c>
       <c r="G113" t="n">
         <v>1.361942016821861</v>
       </c>
       <c r="J113" t="n">
-        <v>0.06239399005492299</v>
+        <v>0.06245038715349629</v>
       </c>
       <c r="K113" t="n">
         <v>1.361942016821861</v>
       </c>
       <c r="L113" t="n">
-        <v>0.1009670986064027</v>
+        <v>0.10139372014981</v>
       </c>
       <c r="M113" t="n">
         <v>1.361942016821861</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1173216082817429</v>
+        <v>0.1178161393483661</v>
       </c>
       <c r="O113" t="n">
         <v>1.361942016821861</v>
@@ -4139,25 +4139,25 @@
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.06315477554457077</v>
+        <v>0.06341537797988955</v>
       </c>
       <c r="G114" t="n">
         <v>1.390315808838983</v>
       </c>
       <c r="J114" t="n">
-        <v>0.06315477554457077</v>
+        <v>0.06341537797988955</v>
       </c>
       <c r="K114" t="n">
         <v>1.390315808838983</v>
       </c>
       <c r="L114" t="n">
-        <v>0.1033208994745814</v>
+        <v>0.1038566679999782</v>
       </c>
       <c r="M114" t="n">
         <v>1.390315808838983</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1190508989632044</v>
+        <v>0.119576404536477</v>
       </c>
       <c r="O114" t="n">
         <v>1.390315808838983</v>
@@ -4165,25 +4165,25 @@
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.0649818942128044</v>
+        <v>0.06473709278719851</v>
       </c>
       <c r="G115" t="n">
         <v>1.418689600856105</v>
       </c>
       <c r="J115" t="n">
-        <v>0.0649818942128044</v>
+        <v>0.06473709278719851</v>
       </c>
       <c r="K115" t="n">
         <v>1.418689600856105</v>
       </c>
       <c r="L115" t="n">
-        <v>0.1049379152698968</v>
+        <v>0.1036221448127362</v>
       </c>
       <c r="M115" t="n">
         <v>1.418689600856105</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1218719021492666</v>
+        <v>0.1217750631328588</v>
       </c>
       <c r="O115" t="n">
         <v>1.418689600856105</v>
@@ -4191,25 +4191,25 @@
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.06554096206787879</v>
+        <v>0.06500598706394031</v>
       </c>
       <c r="G116" t="n">
         <v>1.447063392873227</v>
       </c>
       <c r="J116" t="n">
-        <v>0.06554096206787879</v>
+        <v>0.06500598706394031</v>
       </c>
       <c r="K116" t="n">
         <v>1.447063392873227</v>
       </c>
       <c r="L116" t="n">
-        <v>0.1048555920277234</v>
+        <v>0.1052574591479507</v>
       </c>
       <c r="M116" t="n">
         <v>1.447063392873227</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1226497784050533</v>
+        <v>0.1235324154910267</v>
       </c>
       <c r="O116" t="n">
         <v>1.447063392873227</v>
@@ -4217,25 +4217,25 @@
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.06611011006922717</v>
+        <v>0.06576681810561623</v>
       </c>
       <c r="G117" t="n">
         <v>1.475437184890349</v>
       </c>
       <c r="J117" t="n">
-        <v>0.06611011006922717</v>
+        <v>0.06576681810561623</v>
       </c>
       <c r="K117" t="n">
         <v>1.475437184890349</v>
       </c>
       <c r="L117" t="n">
-        <v>0.1080196668400555</v>
+        <v>0.1059757044498781</v>
       </c>
       <c r="M117" t="n">
         <v>1.475437184890349</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1250281413495959</v>
+        <v>0.1236263971316671</v>
       </c>
       <c r="O117" t="n">
         <v>1.475437184890349</v>
@@ -4243,25 +4243,25 @@
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.0667764578834688</v>
+        <v>0.06640265923877925</v>
       </c>
       <c r="G118" t="n">
         <v>1.503810976907471</v>
       </c>
       <c r="J118" t="n">
-        <v>0.0667764578834688</v>
+        <v>0.06640265923877925</v>
       </c>
       <c r="K118" t="n">
         <v>1.503810976907471</v>
       </c>
       <c r="L118" t="n">
-        <v>0.1079948363969963</v>
+        <v>0.1082220572730946</v>
       </c>
       <c r="M118" t="n">
         <v>1.503810976907471</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1241945831310469</v>
+        <v>0.1246210238325673</v>
       </c>
       <c r="O118" t="n">
         <v>1.503810976907471</v>
@@ -4269,25 +4269,25 @@
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.06686845559253986</v>
+        <v>0.06696960795577989</v>
       </c>
       <c r="G119" t="n">
         <v>1.532184768924593</v>
       </c>
       <c r="J119" t="n">
-        <v>0.06686845559253986</v>
+        <v>0.06696960795577989</v>
       </c>
       <c r="K119" t="n">
         <v>1.532184768924593</v>
       </c>
       <c r="L119" t="n">
-        <v>0.1086879641467562</v>
+        <v>0.108862861806049</v>
       </c>
       <c r="M119" t="n">
         <v>1.532184768924593</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1264197082045859</v>
+        <v>0.1268758683223933</v>
       </c>
       <c r="O119" t="n">
         <v>1.532184768924593</v>
@@ -4295,25 +4295,25 @@
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.0683636797158689</v>
+        <v>0.06833645132605874</v>
       </c>
       <c r="G120" t="n">
         <v>1.560558560941715</v>
       </c>
       <c r="J120" t="n">
-        <v>0.0683636797158689</v>
+        <v>0.06833645132605874</v>
       </c>
       <c r="K120" t="n">
         <v>1.560558560941715</v>
       </c>
       <c r="L120" t="n">
-        <v>0.1094924564959586</v>
+        <v>0.1106179458200126</v>
       </c>
       <c r="M120" t="n">
         <v>1.560558560941715</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1281621328858957</v>
+        <v>0.1283667829982884</v>
       </c>
       <c r="O120" t="n">
         <v>1.560558560941715</v>
@@ -4321,25 +4321,25 @@
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.06910205439924125</v>
+        <v>0.06860773269862074</v>
       </c>
       <c r="G121" t="n">
         <v>1.588932352958837</v>
       </c>
       <c r="J121" t="n">
-        <v>0.06910205439924125</v>
+        <v>0.06860773269862074</v>
       </c>
       <c r="K121" t="n">
         <v>1.588932352958837</v>
       </c>
       <c r="L121" t="n">
-        <v>0.1120245855483215</v>
+        <v>0.1112121680294434</v>
       </c>
       <c r="M121" t="n">
         <v>1.588932352958837</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1297534302160917</v>
+        <v>0.1279086558552942</v>
       </c>
       <c r="O121" t="n">
         <v>1.588932352958837</v>
@@ -4347,25 +4347,25 @@
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.06884480770100615</v>
+        <v>0.06858880188342452</v>
       </c>
       <c r="G122" t="n">
         <v>1.617306144975959</v>
       </c>
       <c r="J122" t="n">
-        <v>0.06884480770100615</v>
+        <v>0.06858880188342452</v>
       </c>
       <c r="K122" t="n">
         <v>1.617306144975959</v>
       </c>
       <c r="L122" t="n">
-        <v>0.1116525418927086</v>
+        <v>0.1115179531932899</v>
       </c>
       <c r="M122" t="n">
         <v>1.617306144975959</v>
       </c>
       <c r="N122" t="n">
-        <v>0.129841402223899</v>
+        <v>0.1289443303551247</v>
       </c>
       <c r="O122" t="n">
         <v>1.617306144975959</v>
@@ -4373,25 +4373,25 @@
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.06962281940708438</v>
+        <v>0.07030601118658716</v>
       </c>
       <c r="G123" t="n">
         <v>1.645679936993081</v>
       </c>
       <c r="J123" t="n">
-        <v>0.06962281940708438</v>
+        <v>0.07030601118658716</v>
       </c>
       <c r="K123" t="n">
         <v>1.645679936993081</v>
       </c>
       <c r="L123" t="n">
-        <v>0.1134452327601944</v>
+        <v>0.1126655016056518</v>
       </c>
       <c r="M123" t="n">
         <v>1.645679936993081</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1320142908388957</v>
+        <v>0.1302982884475586</v>
       </c>
       <c r="O123" t="n">
         <v>1.645679936993081</v>
@@ -4399,25 +4399,25 @@
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.07036040420116656</v>
+        <v>0.07060622314177754</v>
       </c>
       <c r="G124" t="n">
         <v>1.674053729010204</v>
       </c>
       <c r="J124" t="n">
-        <v>0.07036040420116656</v>
+        <v>0.07060622314177754</v>
       </c>
       <c r="K124" t="n">
         <v>1.674053729010204</v>
       </c>
       <c r="L124" t="n">
-        <v>0.1134612126962217</v>
+        <v>0.1137572182681765</v>
       </c>
       <c r="M124" t="n">
         <v>1.674053729010204</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1310072580062335</v>
+        <v>0.1320894172846168</v>
       </c>
       <c r="O124" t="n">
         <v>1.674053729010204</v>
@@ -4425,25 +4425,25 @@
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.0713531762882398</v>
+        <v>0.07139562735990361</v>
       </c>
       <c r="G125" t="n">
         <v>1.702427521027326</v>
       </c>
       <c r="J125" t="n">
-        <v>0.0713531762882398</v>
+        <v>0.07139562735990361</v>
       </c>
       <c r="K125" t="n">
         <v>1.702427521027326</v>
       </c>
       <c r="L125" t="n">
-        <v>0.1149399612203517</v>
+        <v>0.1139536474441643</v>
       </c>
       <c r="M125" t="n">
         <v>1.702427521027326</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1316407556691034</v>
+        <v>0.1340204461624148</v>
       </c>
       <c r="O125" t="n">
         <v>1.702427521027326</v>
@@ -4451,25 +4451,25 @@
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.07098833381680644</v>
+        <v>0.07101684032571792</v>
       </c>
       <c r="G126" t="n">
         <v>1.730801313044448</v>
       </c>
       <c r="J126" t="n">
-        <v>0.07098833381680644</v>
+        <v>0.07101684032571792</v>
       </c>
       <c r="K126" t="n">
         <v>1.730801313044448</v>
       </c>
       <c r="L126" t="n">
-        <v>0.1146436588936761</v>
+        <v>0.1144010634848927</v>
       </c>
       <c r="M126" t="n">
         <v>1.730801313044448</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1330934767337552</v>
+        <v>0.1327988740083157</v>
       </c>
       <c r="O126" t="n">
         <v>1.730801313044448</v>
@@ -4477,25 +4477,25 @@
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.07215009737567775</v>
+        <v>0.07202089903178975</v>
       </c>
       <c r="G127" t="n">
         <v>1.75917510506157</v>
       </c>
       <c r="J127" t="n">
-        <v>0.07215009737567775</v>
+        <v>0.07202089903178975</v>
       </c>
       <c r="K127" t="n">
         <v>1.75917510506157</v>
       </c>
       <c r="L127" t="n">
-        <v>0.1173266089395378</v>
+        <v>0.116814672129409</v>
       </c>
       <c r="M127" t="n">
         <v>1.75917510506157</v>
       </c>
       <c r="N127" t="n">
-        <v>0.134788805138972</v>
+        <v>0.1340605086133062</v>
       </c>
       <c r="O127" t="n">
         <v>1.75917510506157</v>
@@ -4503,25 +4503,25 @@
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.07268774315177026</v>
+        <v>0.07258654700975307</v>
       </c>
       <c r="G128" t="n">
         <v>1.787548897078692</v>
       </c>
       <c r="J128" t="n">
-        <v>0.07268774315177026</v>
+        <v>0.07258654700975307</v>
       </c>
       <c r="K128" t="n">
         <v>1.787548897078692</v>
       </c>
       <c r="L128" t="n">
-        <v>0.1162323001464064</v>
+        <v>0.1179078262473072</v>
       </c>
       <c r="M128" t="n">
         <v>1.787548897078692</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1370838301253307</v>
+        <v>0.1345439830795131</v>
       </c>
       <c r="O128" t="n">
         <v>1.787548897078692</v>
@@ -4529,25 +4529,25 @@
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.07286405344005741</v>
+        <v>0.07282766144453244</v>
       </c>
       <c r="G129" t="n">
         <v>1.815922689095814</v>
       </c>
       <c r="J129" t="n">
-        <v>0.07286405344005741</v>
+        <v>0.07282766144453244</v>
       </c>
       <c r="K129" t="n">
         <v>1.815922689095814</v>
       </c>
       <c r="L129" t="n">
-        <v>0.1189020822008701</v>
+        <v>0.1180408148858608</v>
       </c>
       <c r="M129" t="n">
         <v>1.815922689095814</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1376237462123998</v>
+        <v>0.1376647748558101</v>
       </c>
       <c r="O129" t="n">
         <v>1.815922689095814</v>
@@ -4555,25 +4555,25 @@
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.07334532271508776</v>
+        <v>0.07335265065221586</v>
       </c>
       <c r="G130" t="n">
         <v>1.844296481112936</v>
       </c>
       <c r="J130" t="n">
-        <v>0.07334532271508776</v>
+        <v>0.07335265065221586</v>
       </c>
       <c r="K130" t="n">
         <v>1.844296481112936</v>
       </c>
       <c r="L130" t="n">
-        <v>0.1187135574515181</v>
+        <v>0.1182859320694634</v>
       </c>
       <c r="M130" t="n">
         <v>1.844296481112936</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1372798922213407</v>
+        <v>0.1383263588019648</v>
       </c>
       <c r="O130" t="n">
         <v>1.844296481112936</v>
@@ -4581,25 +4581,25 @@
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.07407096635689255</v>
+        <v>0.07370212377967468</v>
       </c>
       <c r="G131" t="n">
         <v>1.872670273130058</v>
       </c>
       <c r="J131" t="n">
-        <v>0.07407096635689255</v>
+        <v>0.07370212377967468</v>
       </c>
       <c r="K131" t="n">
         <v>1.872670273130058</v>
       </c>
       <c r="L131" t="n">
-        <v>0.1203549793511175</v>
+        <v>0.1194701041924506</v>
       </c>
       <c r="M131" t="n">
         <v>1.872670273130058</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1387645531962275</v>
+        <v>0.1396239480916591</v>
       </c>
       <c r="O131" t="n">
         <v>1.872670273130058</v>
@@ -4607,25 +4607,25 @@
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.07432509054429913</v>
+        <v>0.07445131697179695</v>
       </c>
       <c r="G132" t="n">
         <v>1.90104406514718</v>
       </c>
       <c r="J132" t="n">
-        <v>0.07432509054429913</v>
+        <v>0.07445131697179695</v>
       </c>
       <c r="K132" t="n">
         <v>1.90104406514718</v>
       </c>
       <c r="L132" t="n">
-        <v>0.1211659740607369</v>
+        <v>0.1203354930624066</v>
       </c>
       <c r="M132" t="n">
         <v>1.90104406514718</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1404112915842195</v>
+        <v>0.1407600875191962</v>
       </c>
       <c r="O132" t="n">
         <v>1.90104406514718</v>
@@ -4633,25 +4633,25 @@
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.07503213584771812</v>
+        <v>0.07450158295007964</v>
       </c>
       <c r="G133" t="n">
         <v>1.929417857164302</v>
       </c>
       <c r="J133" t="n">
-        <v>0.07503213584771812</v>
+        <v>0.07450158295007964</v>
       </c>
       <c r="K133" t="n">
         <v>1.929417857164302</v>
       </c>
       <c r="L133" t="n">
-        <v>0.1209113715287379</v>
+        <v>0.1213353244443365</v>
       </c>
       <c r="M133" t="n">
         <v>1.929417857164302</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1394700042833905</v>
+        <v>0.1401439759138751</v>
       </c>
       <c r="O133" t="n">
         <v>1.929417857164302</v>
@@ -4659,25 +4659,25 @@
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.07495959583999579</v>
+        <v>0.07468138287519692</v>
       </c>
       <c r="G134" t="n">
         <v>1.957791649181424</v>
       </c>
       <c r="J134" t="n">
-        <v>0.07495959583999579</v>
+        <v>0.07468138287519692</v>
       </c>
       <c r="K134" t="n">
         <v>1.957791649181424</v>
       </c>
       <c r="L134" t="n">
-        <v>0.1220447483878876</v>
+        <v>0.1225932367208003</v>
       </c>
       <c r="M134" t="n">
         <v>1.957791649181424</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1424184349979268</v>
+        <v>0.1415283197791898</v>
       </c>
       <c r="O134" t="n">
         <v>1.957791649181424</v>
@@ -4685,25 +4685,25 @@
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.07630921892198528</v>
+        <v>0.07602174491395162</v>
       </c>
       <c r="G135" t="n">
         <v>1.986165441198547</v>
       </c>
       <c r="J135" t="n">
-        <v>0.07630921892198528</v>
+        <v>0.07602174491395162</v>
       </c>
       <c r="K135" t="n">
         <v>1.986165441198547</v>
       </c>
       <c r="L135" t="n">
-        <v>0.1237329574726154</v>
+        <v>0.1224085610992712</v>
       </c>
       <c r="M135" t="n">
         <v>1.986165441198547</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1418366691066601</v>
+        <v>0.1433718826027033</v>
       </c>
       <c r="O135" t="n">
         <v>1.986165441198547</v>
@@ -4711,25 +4711,25 @@
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.07661774284325862</v>
+        <v>0.07604699088524865</v>
       </c>
       <c r="G136" t="n">
         <v>2.014539233215669</v>
       </c>
       <c r="J136" t="n">
-        <v>0.07661774284325862</v>
+        <v>0.07604699088524865</v>
       </c>
       <c r="K136" t="n">
         <v>2.014539233215669</v>
       </c>
       <c r="L136" t="n">
-        <v>0.12394956671189</v>
+        <v>0.1244306607705846</v>
       </c>
       <c r="M136" t="n">
         <v>2.014539233215669</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1436655320657602</v>
+        <v>0.1444233974185506</v>
       </c>
       <c r="O136" t="n">
         <v>2.014539233215669</v>
@@ -4737,25 +4737,25 @@
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.07577433103932653</v>
+        <v>0.07687650312717129</v>
       </c>
       <c r="G137" t="n">
         <v>2.042913025232791</v>
       </c>
       <c r="J137" t="n">
-        <v>0.07577433103932653</v>
+        <v>0.07687650312717129</v>
       </c>
       <c r="K137" t="n">
         <v>2.042913025232791</v>
       </c>
       <c r="L137" t="n">
-        <v>0.1234370650869427</v>
+        <v>0.122990413730713</v>
       </c>
       <c r="M137" t="n">
         <v>2.042913025232791</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1444376506341995</v>
+        <v>0.1440493387187237</v>
       </c>
       <c r="O137" t="n">
         <v>2.042913025232791</v>
@@ -4763,25 +4763,25 @@
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.07771547074109884</v>
+        <v>0.07763080498115507</v>
       </c>
       <c r="G138" t="n">
         <v>2.071286817249913</v>
       </c>
       <c r="J138" t="n">
-        <v>0.07771547074109884</v>
+        <v>0.07763080498115507</v>
       </c>
       <c r="K138" t="n">
         <v>2.071286817249913</v>
       </c>
       <c r="L138" t="n">
-        <v>0.1242040135639423</v>
+        <v>0.1245783099383188</v>
       </c>
       <c r="M138" t="n">
         <v>2.071286817249913</v>
       </c>
       <c r="N138" t="n">
-        <v>0.145666900533919</v>
+        <v>0.1439313933790271</v>
       </c>
       <c r="O138" t="n">
         <v>2.071286817249913</v>
@@ -4789,25 +4789,25 @@
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.07676027470214218</v>
+        <v>0.07769665873671816</v>
       </c>
       <c r="G139" t="n">
         <v>2.099660609267035</v>
       </c>
       <c r="J139" t="n">
-        <v>0.07676027470214218</v>
+        <v>0.07769665873671816</v>
       </c>
       <c r="K139" t="n">
         <v>2.099660609267035</v>
       </c>
       <c r="L139" t="n">
-        <v>0.1259201003921996</v>
+        <v>0.1248914643858079</v>
       </c>
       <c r="M139" t="n">
         <v>2.099660609267035</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1452515180030654</v>
+        <v>0.1460949045326657</v>
       </c>
       <c r="O139" t="n">
         <v>2.099660609267035</v>
@@ -4815,25 +4815,25 @@
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.07791054813353565</v>
+        <v>0.07758381393267608</v>
       </c>
       <c r="G140" t="n">
         <v>2.128034401284157</v>
       </c>
       <c r="J140" t="n">
-        <v>0.07791054813353565</v>
+        <v>0.07758381393267608</v>
       </c>
       <c r="K140" t="n">
         <v>2.128034401284157</v>
       </c>
       <c r="L140" t="n">
-        <v>0.1261910185765236</v>
+        <v>0.1248417191873272</v>
       </c>
       <c r="M140" t="n">
         <v>2.128034401284157</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1470528085868091</v>
+        <v>0.1473743952457464</v>
       </c>
       <c r="O140" t="n">
         <v>2.128034401284157</v>
@@ -4841,25 +4841,25 @@
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.07776631193685672</v>
+        <v>0.07743010125786165</v>
       </c>
       <c r="G141" t="n">
         <v>2.156408193301279</v>
       </c>
       <c r="J141" t="n">
-        <v>0.07776631193685672</v>
+        <v>0.07743010125786165</v>
       </c>
       <c r="K141" t="n">
         <v>2.156408193301279</v>
       </c>
       <c r="L141" t="n">
-        <v>0.1255638001600044</v>
+        <v>0.1259693761774789</v>
       </c>
       <c r="M141" t="n">
         <v>2.156408193301279</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1481073800664221</v>
+        <v>0.1457860859437661</v>
       </c>
       <c r="O141" t="n">
         <v>2.156408193301279</v>
@@ -4867,25 +4867,25 @@
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.07863340085185258</v>
+        <v>0.07795769416987224</v>
       </c>
       <c r="G142" t="n">
         <v>2.184781985318401</v>
       </c>
       <c r="J142" t="n">
-        <v>0.07863340085185258</v>
+        <v>0.07795769416987224</v>
       </c>
       <c r="K142" t="n">
         <v>2.184781985318401</v>
       </c>
       <c r="L142" t="n">
-        <v>0.1276292051144108</v>
+        <v>0.1278711924307639</v>
       </c>
       <c r="M142" t="n">
         <v>2.184781985318401</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1475170518801438</v>
+        <v>0.147900903296165</v>
       </c>
       <c r="O142" t="n">
         <v>2.184781985318401</v>
@@ -4893,25 +4893,25 @@
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.0786867109530431</v>
+        <v>0.07929454369214665</v>
       </c>
       <c r="G143" t="n">
         <v>2.213155777335523</v>
       </c>
       <c r="J143" t="n">
-        <v>0.0786867109530431</v>
+        <v>0.07929454369214665</v>
       </c>
       <c r="K143" t="n">
         <v>2.213155777335523</v>
       </c>
       <c r="L143" t="n">
-        <v>0.127601233576317</v>
+        <v>0.1281770514173654</v>
       </c>
       <c r="M143" t="n">
         <v>2.213155777335523</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1487879055246649</v>
+        <v>0.1496333756288326</v>
       </c>
       <c r="O143" t="n">
         <v>2.213155777335523</v>
@@ -4919,25 +4919,25 @@
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.07983346420663059</v>
+        <v>0.07954800485905028</v>
       </c>
       <c r="G144" t="n">
         <v>2.241529569352645</v>
       </c>
       <c r="J144" t="n">
-        <v>0.07983346420663059</v>
+        <v>0.07954800485905028</v>
       </c>
       <c r="K144" t="n">
         <v>2.241529569352645</v>
       </c>
       <c r="L144" t="n">
-        <v>0.1293060927279266</v>
+        <v>0.1280078904053102</v>
       </c>
       <c r="M144" t="n">
         <v>2.241529569352645</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1496208169901773</v>
+        <v>0.1503508926755507</v>
       </c>
       <c r="O144" t="n">
         <v>2.241529569352645</v>
@@ -4945,25 +4945,25 @@
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.07911717373370875</v>
+        <v>0.07949942077338847</v>
       </c>
       <c r="G145" t="n">
         <v>2.269903361369768</v>
       </c>
       <c r="J145" t="n">
-        <v>0.07911717373370875</v>
+        <v>0.07949942077338847</v>
       </c>
       <c r="K145" t="n">
         <v>2.269903361369768</v>
       </c>
       <c r="L145" t="n">
-        <v>0.1288158061805576</v>
+        <v>0.1286479932253169</v>
       </c>
       <c r="M145" t="n">
         <v>2.269903361369768</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1502035237820019</v>
+        <v>0.1504579031309055</v>
       </c>
       <c r="O145" t="n">
         <v>2.269903361369768</v>
@@ -4971,25 +4971,25 @@
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.08057603772476608</v>
+        <v>0.08039212893567511</v>
       </c>
       <c r="G146" t="n">
         <v>2.29827715338689</v>
       </c>
       <c r="J146" t="n">
-        <v>0.08057603772476608</v>
+        <v>0.08039212893567511</v>
       </c>
       <c r="K146" t="n">
         <v>2.29827715338689</v>
       </c>
       <c r="L146" t="n">
-        <v>0.1291738999012789</v>
+        <v>0.1304570843373843</v>
       </c>
       <c r="M146" t="n">
         <v>2.29827715338689</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1493150822950288</v>
+        <v>0.1500813400125822</v>
       </c>
       <c r="O146" t="n">
         <v>2.29827715338689</v>
@@ -4997,25 +4997,25 @@
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.07977263291802371</v>
+        <v>0.08092049833433257</v>
       </c>
       <c r="G147" t="n">
         <v>2.326650945404012</v>
       </c>
       <c r="J147" t="n">
-        <v>0.07977263291802371</v>
+        <v>0.08092049833433257</v>
       </c>
       <c r="K147" t="n">
         <v>2.326650945404012</v>
       </c>
       <c r="L147" t="n">
-        <v>0.1311319525276026</v>
+        <v>0.1308326833364798</v>
       </c>
       <c r="M147" t="n">
         <v>2.326650945404012</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1507687096796583</v>
+        <v>0.1511156164746395</v>
       </c>
       <c r="O147" t="n">
         <v>2.326650945404012</v>
@@ -5023,25 +5023,25 @@
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.08051577488132121</v>
+        <v>0.07995988249921084</v>
       </c>
       <c r="G148" t="n">
         <v>2.355024737421134</v>
       </c>
       <c r="J148" t="n">
-        <v>0.08051577488132121</v>
+        <v>0.07995988249921084</v>
       </c>
       <c r="K148" t="n">
         <v>2.355024737421134</v>
       </c>
       <c r="L148" t="n">
-        <v>0.1307630638806038</v>
+        <v>0.130880597843944</v>
       </c>
       <c r="M148" t="n">
         <v>2.355024737421134</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1500640885165691</v>
+        <v>0.1520774572013975</v>
       </c>
       <c r="O148" t="n">
         <v>2.355024737421134</v>
@@ -5049,25 +5049,25 @@
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.08034804164535682</v>
+        <v>0.08079266809575369</v>
       </c>
       <c r="G149" t="n">
         <v>2.383398529438256</v>
       </c>
       <c r="J149" t="n">
-        <v>0.08034804164535682</v>
+        <v>0.08079266809575369</v>
       </c>
       <c r="K149" t="n">
         <v>2.383398529438256</v>
       </c>
       <c r="L149" t="n">
-        <v>0.1322348879238966</v>
+        <v>0.1322086794434836</v>
       </c>
       <c r="M149" t="n">
         <v>2.383398529438256</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1506864891110493</v>
+        <v>0.1510206728570617</v>
       </c>
       <c r="O149" t="n">
         <v>2.383398529438256</v>
@@ -5075,25 +5075,25 @@
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.08152262804728908</v>
+        <v>0.08091437127216505</v>
       </c>
       <c r="G150" t="n">
         <v>2.411772321455378</v>
       </c>
       <c r="J150" t="n">
-        <v>0.08152262804728908</v>
+        <v>0.08091437127216505</v>
       </c>
       <c r="K150" t="n">
         <v>2.411772321455378</v>
       </c>
       <c r="L150" t="n">
-        <v>0.130937567941277</v>
+        <v>0.1317920801818576</v>
       </c>
       <c r="M150" t="n">
         <v>2.411772321455378</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1509877544878658</v>
+        <v>0.1538983985237139</v>
       </c>
       <c r="O150" t="n">
         <v>2.411772321455378</v>
@@ -5101,25 +5101,25 @@
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.081912120215587</v>
+        <v>0.08153794369821689</v>
       </c>
       <c r="G151" t="n">
         <v>2.4401461134725</v>
       </c>
       <c r="J151" t="n">
-        <v>0.081912120215587</v>
+        <v>0.08153794369821689</v>
       </c>
       <c r="K151" t="n">
         <v>2.4401461134725</v>
       </c>
       <c r="L151" t="n">
-        <v>0.1324751253058874</v>
+        <v>0.1311829423378396</v>
       </c>
       <c r="M151" t="n">
         <v>2.4401461134725</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1521563206467848</v>
+        <v>0.1539904500769821</v>
       </c>
       <c r="O151" t="n">
         <v>2.4401461134725</v>
@@ -5127,25 +5127,25 @@
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.08183521035882672</v>
+        <v>0.08231645000909792</v>
       </c>
       <c r="G152" t="n">
         <v>2.468519905489622</v>
       </c>
       <c r="J152" t="n">
-        <v>0.08183521035882672</v>
+        <v>0.08231645000909792</v>
       </c>
       <c r="K152" t="n">
         <v>2.468519905489622</v>
       </c>
       <c r="L152" t="n">
-        <v>0.1332487012677784</v>
+        <v>0.1309216749308932</v>
       </c>
       <c r="M152" t="n">
         <v>2.468519905489622</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1525434033691981</v>
+        <v>0.1544745265305081</v>
       </c>
       <c r="O152" t="n">
         <v>2.468519905489622</v>
@@ -5153,25 +5153,25 @@
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.08218731171561496</v>
+        <v>0.08163945081769969</v>
       </c>
       <c r="G153" t="n">
         <v>2.496893697506744</v>
       </c>
       <c r="J153" t="n">
-        <v>0.08218731171561496</v>
+        <v>0.08163945081769969</v>
       </c>
       <c r="K153" t="n">
         <v>2.496893697506744</v>
       </c>
       <c r="L153" t="n">
-        <v>0.1331847097381783</v>
+        <v>0.1329461224794913</v>
       </c>
       <c r="M153" t="n">
         <v>2.496893697506744</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1544003872204795</v>
+        <v>0.1537550676599998</v>
       </c>
       <c r="O153" t="n">
         <v>2.496893697506744</v>
@@ -5179,25 +5179,25 @@
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.08247117550776605</v>
+        <v>0.08203681475034662</v>
       </c>
       <c r="G154" t="n">
         <v>2.525267489523866</v>
       </c>
       <c r="J154" t="n">
-        <v>0.08247117550776605</v>
+        <v>0.08203681475034662</v>
       </c>
       <c r="K154" t="n">
         <v>2.525267489523866</v>
       </c>
       <c r="L154" t="n">
-        <v>0.133923739300428</v>
+        <v>0.1334986267463547</v>
       </c>
       <c r="M154" t="n">
         <v>2.525267489523866</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1548721041865382</v>
+        <v>0.15501069908936</v>
       </c>
       <c r="O154" t="n">
         <v>2.525267489523866</v>
@@ -5205,25 +5205,25 @@
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.08190567855423371</v>
+        <v>0.08139653958587974</v>
       </c>
       <c r="G155" t="n">
         <v>2.553641281540989</v>
       </c>
       <c r="J155" t="n">
-        <v>0.08190567855423371</v>
+        <v>0.08139653958587974</v>
       </c>
       <c r="K155" t="n">
         <v>2.553641281540989</v>
       </c>
       <c r="L155" t="n">
-        <v>0.1324484771810689</v>
+        <v>0.1328877535375489</v>
       </c>
       <c r="M155" t="n">
         <v>2.553641281540989</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1555375370335923</v>
+        <v>0.1547197305392689</v>
       </c>
       <c r="O155" t="n">
         <v>2.553641281540989</v>
@@ -5231,25 +5231,25 @@
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.08264109345036054</v>
+        <v>0.08207348092317809</v>
       </c>
       <c r="G156" t="n">
         <v>2.58201507355811</v>
       </c>
       <c r="J156" t="n">
-        <v>0.08264109345036054</v>
+        <v>0.08207348092317809</v>
       </c>
       <c r="K156" t="n">
         <v>2.58201507355811</v>
       </c>
       <c r="L156" t="n">
-        <v>0.1329066095171418</v>
+        <v>0.1339200440835412</v>
       </c>
       <c r="M156" t="n">
         <v>2.58201507355811</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1553919799177395</v>
+        <v>0.154943718959059</v>
       </c>
       <c r="O156" t="n">
         <v>2.58201507355811</v>
@@ -5257,25 +5257,25 @@
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.08179983418263047</v>
+        <v>0.08196460371467323</v>
       </c>
       <c r="G157" t="n">
         <v>2.610388865575233</v>
       </c>
       <c r="J157" t="n">
-        <v>0.08179983418263047</v>
+        <v>0.08196460371467323</v>
       </c>
       <c r="K157" t="n">
         <v>2.610388865575233</v>
       </c>
       <c r="L157" t="n">
-        <v>0.1345594834702925</v>
+        <v>0.1335311904743405</v>
       </c>
       <c r="M157" t="n">
         <v>2.610388865575233</v>
       </c>
       <c r="N157" t="n">
-        <v>0.154399650592025</v>
+        <v>0.1539197639699724</v>
       </c>
       <c r="O157" t="n">
         <v>2.610388865575233</v>
@@ -5283,25 +5283,25 @@
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.08330969585217771</v>
+        <v>0.08330144736743987</v>
       </c>
       <c r="G158" t="n">
         <v>2.638762657592355</v>
       </c>
       <c r="J158" t="n">
-        <v>0.08330969585217771</v>
+        <v>0.08330144736743987</v>
       </c>
       <c r="K158" t="n">
         <v>2.638762657592355</v>
       </c>
       <c r="L158" t="n">
-        <v>0.1337201460759541</v>
+        <v>0.1337335167534939</v>
       </c>
       <c r="M158" t="n">
         <v>2.638762657592355</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1534712865597895</v>
+        <v>0.1555016580543697</v>
       </c>
       <c r="O158" t="n">
         <v>2.638762657592355</v>
@@ -5309,25 +5309,25 @@
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.08235593947337341</v>
+        <v>0.08280177613819166</v>
       </c>
       <c r="G159" t="n">
         <v>2.667136449609477</v>
       </c>
       <c r="J159" t="n">
-        <v>0.08235593947337341</v>
+        <v>0.08280177613819166</v>
       </c>
       <c r="K159" t="n">
         <v>2.667136449609477</v>
       </c>
       <c r="L159" t="n">
-        <v>0.1332033862239805</v>
+        <v>0.1331230867848824</v>
       </c>
       <c r="M159" t="n">
         <v>2.667136449609477</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1563613830820218</v>
+        <v>0.1566716547023849</v>
       </c>
       <c r="O159" t="n">
         <v>2.667136449609477</v>
@@ -5335,25 +5335,25 @@
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.08255058272227118</v>
+        <v>0.08236882603493233</v>
       </c>
       <c r="G160" t="n">
         <v>2.695510241626599</v>
       </c>
       <c r="J160" t="n">
-        <v>0.08255058272227118</v>
+        <v>0.08236882603493233</v>
       </c>
       <c r="K160" t="n">
         <v>2.695510241626599</v>
       </c>
       <c r="L160" t="n">
-        <v>0.1335990587160939</v>
+        <v>0.1346302463184535</v>
       </c>
       <c r="M160" t="n">
         <v>2.695510241626599</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1545393278392996</v>
+        <v>0.1561693257723108</v>
       </c>
       <c r="O160" t="n">
         <v>2.695510241626599</v>
@@ -5387,25 +5387,25 @@
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.08253770842798218</v>
+        <v>0.08300056759801692</v>
       </c>
       <c r="G162" t="n">
         <v>2.752257825660843</v>
       </c>
       <c r="J162" t="n">
-        <v>0.08253770842798218</v>
+        <v>0.08300056759801692</v>
       </c>
       <c r="K162" t="n">
         <v>2.752257825660843</v>
       </c>
       <c r="L162" t="n">
-        <v>0.1331225622426748</v>
+        <v>0.1343685765631829</v>
       </c>
       <c r="M162" t="n">
         <v>2.752257825660843</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1566425865510315</v>
+        <v>0.1557418062595423</v>
       </c>
       <c r="O162" t="n">
         <v>2.752257825660843</v>
@@ -5413,25 +5413,25 @@
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.08334385620406566</v>
+        <v>0.08244315420860233</v>
       </c>
       <c r="G163" t="n">
         <v>2.780631617677965</v>
       </c>
       <c r="J163" t="n">
-        <v>0.08334385620406566</v>
+        <v>0.08244315420860233</v>
       </c>
       <c r="K163" t="n">
         <v>2.780631617677965</v>
       </c>
       <c r="L163" t="n">
-        <v>0.1331301917313348</v>
+        <v>0.1350456376934618</v>
       </c>
       <c r="M163" t="n">
         <v>2.780631617677965</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1553466014800643</v>
+        <v>0.154228664917689</v>
       </c>
       <c r="O163" t="n">
         <v>2.780631617677965</v>
@@ -5439,25 +5439,25 @@
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.08257006459027637</v>
+        <v>0.08244618471741638</v>
       </c>
       <c r="G164" t="n">
         <v>2.809005409695087</v>
       </c>
       <c r="J164" t="n">
-        <v>0.08257006459027637</v>
+        <v>0.08244618471741638</v>
       </c>
       <c r="K164" t="n">
         <v>2.809005409695087</v>
       </c>
       <c r="L164" t="n">
-        <v>0.1330952298586176</v>
+        <v>0.1331755528699988</v>
       </c>
       <c r="M164" t="n">
         <v>2.809005409695087</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1548865064710274</v>
+        <v>0.156624537602653</v>
       </c>
       <c r="O164" t="n">
         <v>2.809005409695087</v>
@@ -5465,25 +5465,25 @@
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.08263813016744524</v>
+        <v>0.08173872365838368</v>
       </c>
       <c r="G165" t="n">
         <v>2.837379201712209</v>
       </c>
       <c r="J165" t="n">
-        <v>0.08263813016744524</v>
+        <v>0.08173872365838368</v>
       </c>
       <c r="K165" t="n">
         <v>2.837379201712209</v>
       </c>
       <c r="L165" t="n">
-        <v>0.1331259660408619</v>
+        <v>0.1324438175159865</v>
       </c>
       <c r="M165" t="n">
         <v>2.837379201712209</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1540378458064676</v>
+        <v>0.1549216059686185</v>
       </c>
       <c r="O165" t="n">
         <v>2.837379201712209</v>
@@ -5491,25 +5491,25 @@
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.08307670112726689</v>
+        <v>0.08163439728825185</v>
       </c>
       <c r="G166" t="n">
         <v>2.865752993729331</v>
       </c>
       <c r="J166" t="n">
-        <v>0.08307670112726689</v>
+        <v>0.08163439728825185</v>
       </c>
       <c r="K166" t="n">
         <v>2.865752993729331</v>
       </c>
       <c r="L166" t="n">
-        <v>0.1343455282671719</v>
+        <v>0.1343588880054642</v>
       </c>
       <c r="M166" t="n">
         <v>2.865752993729331</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1551885979884542</v>
+        <v>0.1543213630331251</v>
       </c>
       <c r="O166" t="n">
         <v>2.865752993729331</v>
@@ -5517,25 +5517,25 @@
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.08163804286098947</v>
+        <v>0.08189316174493007</v>
       </c>
       <c r="G167" t="n">
         <v>2.894126785746454</v>
       </c>
       <c r="J167" t="n">
-        <v>0.08163804286098947</v>
+        <v>0.08189316174493007</v>
       </c>
       <c r="K167" t="n">
         <v>2.894126785746454</v>
       </c>
       <c r="L167" t="n">
-        <v>0.1336547903525938</v>
+        <v>0.1337615114148576</v>
       </c>
       <c r="M167" t="n">
         <v>2.894126785746454</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1561051649375446</v>
+        <v>0.1537237686621229</v>
       </c>
       <c r="O167" t="n">
         <v>2.894126785746454</v>
@@ -5543,25 +5543,25 @@
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.08142939537609155</v>
+        <v>0.08145404107687124</v>
       </c>
       <c r="G168" t="n">
         <v>2.922500577763576</v>
       </c>
       <c r="J168" t="n">
-        <v>0.08142939537609155</v>
+        <v>0.08145404107687124</v>
       </c>
       <c r="K168" t="n">
         <v>2.922500577763576</v>
       </c>
       <c r="L168" t="n">
-        <v>0.1335140152548135</v>
+        <v>0.1343529722626983</v>
       </c>
       <c r="M168" t="n">
         <v>2.922500577763576</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1544271428923914</v>
+        <v>0.1557083756852811</v>
       </c>
       <c r="O168" t="n">
         <v>2.922500577763576</v>
@@ -5569,25 +5569,25 @@
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.08163340939052478</v>
+        <v>0.08240407731085313</v>
       </c>
       <c r="G169" t="n">
         <v>2.950874369780698</v>
       </c>
       <c r="J169" t="n">
-        <v>0.08163340939052478</v>
+        <v>0.08240407731085313</v>
       </c>
       <c r="K169" t="n">
         <v>2.950874369780698</v>
       </c>
       <c r="L169" t="n">
-        <v>0.1342137589838979</v>
+        <v>0.1332303132798867</v>
       </c>
       <c r="M169" t="n">
         <v>2.950874369780698</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1527124943356227</v>
+        <v>0.1544841009984489</v>
       </c>
       <c r="O169" t="n">
         <v>2.950874369780698</v>
@@ -5595,25 +5595,25 @@
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.08183079398863777</v>
+        <v>0.08164265841669269</v>
       </c>
       <c r="G170" t="n">
         <v>2.97924816179782</v>
       </c>
       <c r="J170" t="n">
-        <v>0.08183079398863777</v>
+        <v>0.08164265841669269</v>
       </c>
       <c r="K170" t="n">
         <v>2.97924816179782</v>
       </c>
       <c r="L170" t="n">
-        <v>0.1338664245144146</v>
+        <v>0.1328852324171417</v>
       </c>
       <c r="M170" t="n">
         <v>2.97924816179782</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1552059924000483</v>
+        <v>0.1523164373821033</v>
       </c>
       <c r="O170" t="n">
         <v>2.97924816179782</v>
@@ -5633,13 +5633,13 @@
         <v>3.007621953814942</v>
       </c>
       <c r="L171" t="n">
-        <v>0.1331415980218953</v>
+        <v>0.1330490191815105</v>
       </c>
       <c r="M171" t="n">
         <v>3.007621953814942</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1522347302091876</v>
+        <v>0.1533078854070369</v>
       </c>
       <c r="O171" t="n">
         <v>3.007621953814942</v>
@@ -5647,25 +5647,25 @@
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.08123910872655235</v>
+        <v>0.08136115045223069</v>
       </c>
       <c r="G172" t="n">
         <v>3.035995745832064</v>
       </c>
       <c r="J172" t="n">
-        <v>0.08123910872655235</v>
+        <v>0.08136115045223069</v>
       </c>
       <c r="K172" t="n">
         <v>3.035995745832064</v>
       </c>
       <c r="L172" t="n">
-        <v>0.1311071553706318</v>
+        <v>0.1312522291769971</v>
       </c>
       <c r="M172" t="n">
         <v>3.035995745832064</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1530010510673989</v>
+        <v>0.1529551874429782</v>
       </c>
       <c r="O172" t="n">
         <v>3.035995745832064</v>
@@ -5673,25 +5673,25 @@
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.0817139849943396</v>
+        <v>0.0810164068020115</v>
       </c>
       <c r="G173" t="n">
         <v>3.064369537849186</v>
       </c>
       <c r="J173" t="n">
-        <v>0.0817139849943396</v>
+        <v>0.0810164068020115</v>
       </c>
       <c r="K173" t="n">
         <v>3.064369537849186</v>
       </c>
       <c r="L173" t="n">
-        <v>0.1304192126927823</v>
+        <v>0.1322994372532287</v>
       </c>
       <c r="M173" t="n">
         <v>3.064369537849186</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1515146247200804</v>
+        <v>0.1528101425856077</v>
       </c>
       <c r="O173" t="n">
         <v>3.064369537849186</v>
@@ -5699,25 +5699,25 @@
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.08122003617614748</v>
+        <v>0.08127662987047687</v>
       </c>
       <c r="G174" t="n">
         <v>3.092743329866308</v>
       </c>
       <c r="J174" t="n">
-        <v>0.08122003617614748</v>
+        <v>0.08127662987047687</v>
       </c>
       <c r="K174" t="n">
         <v>3.092743329866308</v>
       </c>
       <c r="L174" t="n">
-        <v>0.1314861644671279</v>
+        <v>0.1315779020482372</v>
       </c>
       <c r="M174" t="n">
         <v>3.092743329866308</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1521274650459863</v>
+        <v>0.1534339321913783</v>
       </c>
       <c r="O174" t="n">
         <v>3.092743329866308</v>
@@ -5725,25 +5725,25 @@
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.08079878523136987</v>
+        <v>0.08065376796801714</v>
       </c>
       <c r="G175" t="n">
         <v>3.12111712188343</v>
       </c>
       <c r="J175" t="n">
-        <v>0.08079878523136987</v>
+        <v>0.08065376796801714</v>
       </c>
       <c r="K175" t="n">
         <v>3.12111712188343</v>
       </c>
       <c r="L175" t="n">
-        <v>0.1303729555662624</v>
+        <v>0.1303337770761593</v>
       </c>
       <c r="M175" t="n">
         <v>3.12111712188343</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1515495664141691</v>
+        <v>0.1517312260682466</v>
       </c>
       <c r="O175" t="n">
         <v>3.12111712188343</v>
@@ -5751,25 +5751,25 @@
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.08015322757515173</v>
+        <v>0.08087561796988071</v>
       </c>
       <c r="G176" t="n">
         <v>3.149490913900552</v>
       </c>
       <c r="J176" t="n">
-        <v>0.08015322757515173</v>
+        <v>0.08087561796988071</v>
       </c>
       <c r="K176" t="n">
         <v>3.149490913900552</v>
       </c>
       <c r="L176" t="n">
-        <v>0.1304997339347698</v>
+        <v>0.1306558652216309</v>
       </c>
       <c r="M176" t="n">
         <v>3.149490913900552</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1493270723294421</v>
+        <v>0.1510916685785629</v>
       </c>
       <c r="O176" t="n">
         <v>3.149490913900552</v>
@@ -5777,25 +5777,25 @@
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.08060590813343832</v>
+        <v>0.07963051428377758</v>
       </c>
       <c r="G177" t="n">
         <v>3.177864705917675</v>
       </c>
       <c r="J177" t="n">
-        <v>0.08060590813343832</v>
+        <v>0.07963051428377758</v>
       </c>
       <c r="K177" t="n">
         <v>3.177864705917675</v>
       </c>
       <c r="L177" t="n">
-        <v>0.1295983350093019</v>
+        <v>0.1307906396913875</v>
       </c>
       <c r="M177" t="n">
         <v>3.177864705917675</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1494616077776152</v>
+        <v>0.1512042499026733</v>
       </c>
       <c r="O177" t="n">
         <v>3.177864705917675</v>
@@ -5803,25 +5803,25 @@
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.07929367369360715</v>
+        <v>0.08020930502956106</v>
       </c>
       <c r="G178" t="n">
         <v>3.206238497934796</v>
       </c>
       <c r="J178" t="n">
-        <v>0.07929367369360715</v>
+        <v>0.08020930502956106</v>
       </c>
       <c r="K178" t="n">
         <v>3.206238497934796</v>
       </c>
       <c r="L178" t="n">
-        <v>0.1279660502381614</v>
+        <v>0.1285210215099961</v>
       </c>
       <c r="M178" t="n">
         <v>3.206238497934796</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1485899903446537</v>
+        <v>0.1499813384217835</v>
       </c>
       <c r="O178" t="n">
         <v>3.206238497934796</v>
@@ -5829,25 +5829,25 @@
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.08002894307025811</v>
+        <v>0.07964049153876304</v>
       </c>
       <c r="G179" t="n">
         <v>3.234612289951919</v>
       </c>
       <c r="J179" t="n">
-        <v>0.08002894307025811</v>
+        <v>0.07964049153876304</v>
       </c>
       <c r="K179" t="n">
         <v>3.234612289951919</v>
       </c>
       <c r="L179" t="n">
-        <v>0.1291089651581874</v>
+        <v>0.1285949451913986</v>
       </c>
       <c r="M179" t="n">
         <v>3.234612289951919</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1488710117093539</v>
+        <v>0.1479027691877302</v>
       </c>
       <c r="O179" t="n">
         <v>3.234612289951919</v>
@@ -5855,25 +5855,25 @@
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.07872885295022872</v>
+        <v>0.07923392979353412</v>
       </c>
       <c r="G180" t="n">
         <v>3.262986081969041</v>
       </c>
       <c r="J180" t="n">
-        <v>0.07872885295022872</v>
+        <v>0.07923392979353412</v>
       </c>
       <c r="K180" t="n">
         <v>3.262986081969041</v>
       </c>
       <c r="L180" t="n">
-        <v>0.127784664348836</v>
+        <v>0.1283219509543672</v>
       </c>
       <c r="M180" t="n">
         <v>3.262986081969041</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1475915603861641</v>
+        <v>0.1492227340667104</v>
       </c>
       <c r="O180" t="n">
         <v>3.262986081969041</v>
@@ -5881,19 +5881,19 @@
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.07791985375756164</v>
+        <v>0.07870533615431125</v>
       </c>
       <c r="G181" t="n">
         <v>3.291359873986163</v>
       </c>
       <c r="J181" t="n">
-        <v>0.07791985375756164</v>
+        <v>0.07870533615431125</v>
       </c>
       <c r="K181" t="n">
         <v>3.291359873986163</v>
       </c>
       <c r="L181" t="n">
-        <v>0.1279240200494518</v>
+        <v>0.1267398920645211</v>
       </c>
       <c r="M181" t="n">
         <v>3.291359873986163</v>
@@ -5907,25 +5907,25 @@
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.07793209316866637</v>
+        <v>0.07769759338982385</v>
       </c>
       <c r="G182" t="n">
         <v>3.319733666003285</v>
       </c>
       <c r="J182" t="n">
-        <v>0.07793209316866637</v>
+        <v>0.07769759338982385</v>
       </c>
       <c r="K182" t="n">
         <v>3.319733666003285</v>
       </c>
       <c r="L182" t="n">
-        <v>0.1260227283022833</v>
+        <v>0.1260480696914453</v>
       </c>
       <c r="M182" t="n">
         <v>3.319733666003285</v>
       </c>
       <c r="N182" t="n">
-        <v>0.148036450929728</v>
+        <v>0.14564237001877</v>
       </c>
       <c r="O182" t="n">
         <v>3.319733666003285</v>
@@ -5933,25 +5933,25 @@
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.07753303822408507</v>
+        <v>0.07854410201876168</v>
       </c>
       <c r="G183" t="n">
         <v>3.348107458020407</v>
       </c>
       <c r="J183" t="n">
-        <v>0.07753303822408507</v>
+        <v>0.07854410201876168</v>
       </c>
       <c r="K183" t="n">
         <v>3.348107458020407</v>
       </c>
       <c r="L183" t="n">
-        <v>0.1261842456575133</v>
+        <v>0.1272180260695341</v>
       </c>
       <c r="M183" t="n">
         <v>3.348107458020407</v>
       </c>
       <c r="N183" t="n">
-        <v>0.145641829644231</v>
+        <v>0.1450134332289488</v>
       </c>
       <c r="O183" t="n">
         <v>3.348107458020407</v>
@@ -5959,25 +5959,25 @@
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.07751870267977672</v>
+        <v>0.076891991938479</v>
       </c>
       <c r="G184" t="n">
         <v>3.376481250037529</v>
       </c>
       <c r="J184" t="n">
-        <v>0.07751870267977672</v>
+        <v>0.076891991938479</v>
       </c>
       <c r="K184" t="n">
         <v>3.376481250037529</v>
       </c>
       <c r="L184" t="n">
-        <v>0.1242896639295652</v>
+        <v>0.1256943503432999</v>
       </c>
       <c r="M184" t="n">
         <v>3.376481250037529</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1450772045336578</v>
+        <v>0.1457023493171979</v>
       </c>
       <c r="O184" t="n">
         <v>3.376481250037529</v>
@@ -5985,25 +5985,25 @@
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.0766060732165405</v>
+        <v>0.07696008962883313</v>
       </c>
       <c r="G185" t="n">
         <v>3.404855042054651</v>
       </c>
       <c r="J185" t="n">
-        <v>0.0766060732165405</v>
+        <v>0.07696008962883313</v>
       </c>
       <c r="K185" t="n">
         <v>3.404855042054651</v>
       </c>
       <c r="L185" t="n">
-        <v>0.1242272658016701</v>
+        <v>0.1255621038656166</v>
       </c>
       <c r="M185" t="n">
         <v>3.404855042054651</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1453465991444755</v>
+        <v>0.143567907303388</v>
       </c>
       <c r="O185" t="n">
         <v>3.404855042054651</v>
@@ -6011,25 +6011,25 @@
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.07680037550967893</v>
+        <v>0.07727492437170803</v>
       </c>
       <c r="G186" t="n">
         <v>3.433228834071773</v>
       </c>
       <c r="J186" t="n">
-        <v>0.07680037550967893</v>
+        <v>0.07727492437170803</v>
       </c>
       <c r="K186" t="n">
         <v>3.433228834071773</v>
       </c>
       <c r="L186" t="n">
-        <v>0.1234749485998938</v>
+        <v>0.1232392146747131</v>
       </c>
       <c r="M186" t="n">
         <v>3.433228834071773</v>
       </c>
       <c r="N186" t="n">
-        <v>0.142741349694453</v>
+        <v>0.1451431436893119</v>
       </c>
       <c r="O186" t="n">
         <v>3.433228834071773</v>
@@ -6037,25 +6037,25 @@
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.07581582675082484</v>
+        <v>0.07645517314647479</v>
       </c>
       <c r="G187" t="n">
         <v>3.461602626088895</v>
       </c>
       <c r="J187" t="n">
-        <v>0.07581582675082484</v>
+        <v>0.07645517314647479</v>
       </c>
       <c r="K187" t="n">
         <v>3.461602626088895</v>
       </c>
       <c r="L187" t="n">
-        <v>0.1233158706288436</v>
+        <v>0.1224522277129837</v>
       </c>
       <c r="M187" t="n">
         <v>3.461602626088895</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1442896213840694</v>
+        <v>0.1421300681251742</v>
       </c>
       <c r="O187" t="n">
         <v>3.461602626088895</v>
@@ -6063,25 +6063,25 @@
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.07558767824140553</v>
+        <v>0.07551956759821643</v>
       </c>
       <c r="G188" t="n">
         <v>3.489976418106017</v>
       </c>
       <c r="J188" t="n">
-        <v>0.07558767824140553</v>
+        <v>0.07551956759821643</v>
       </c>
       <c r="K188" t="n">
         <v>3.489976418106017</v>
       </c>
       <c r="L188" t="n">
-        <v>0.122992721733412</v>
+        <v>0.1221217379668977</v>
       </c>
       <c r="M188" t="n">
         <v>3.489976418106017</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1410491258575348</v>
+        <v>0.1429403985401693</v>
       </c>
       <c r="O188" t="n">
         <v>3.489976418106017</v>
@@ -6089,25 +6089,25 @@
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.07545663082957693</v>
+        <v>0.07507291478886417</v>
       </c>
       <c r="G189" t="n">
         <v>3.51835021012314</v>
       </c>
       <c r="J189" t="n">
-        <v>0.07545663082957693</v>
+        <v>0.07507291478886417</v>
       </c>
       <c r="K189" t="n">
         <v>3.51835021012314</v>
       </c>
       <c r="L189" t="n">
-        <v>0.1216311568790128</v>
+        <v>0.1231190743701629</v>
       </c>
       <c r="M189" t="n">
         <v>3.51835021012314</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1404834308976005</v>
+        <v>0.1403986064450106</v>
       </c>
       <c r="O189" t="n">
         <v>3.51835021012314</v>
@@ -6115,25 +6115,25 @@
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.07551134433861277</v>
+        <v>0.0742548164217262</v>
       </c>
       <c r="G190" t="n">
         <v>3.546724002140262</v>
       </c>
       <c r="J190" t="n">
-        <v>0.07551134433861277</v>
+        <v>0.0742548164217262</v>
       </c>
       <c r="K190" t="n">
         <v>3.546724002140262</v>
       </c>
       <c r="L190" t="n">
-        <v>0.1218814978213973</v>
+        <v>0.1222088429364055</v>
       </c>
       <c r="M190" t="n">
         <v>3.546724002140262</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1406923093564958</v>
+        <v>0.1408469008461493</v>
       </c>
       <c r="O190" t="n">
         <v>3.546724002140262</v>
@@ -6141,25 +6141,25 @@
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.07426220261314827</v>
+        <v>0.0746785289067048</v>
       </c>
       <c r="G191" t="n">
         <v>3.575097794157384</v>
       </c>
       <c r="J191" t="n">
-        <v>0.07426220261314827</v>
+        <v>0.0746785289067048</v>
       </c>
       <c r="K191" t="n">
         <v>3.575097794157384</v>
       </c>
       <c r="L191" t="n">
-        <v>0.1206190051814459</v>
+        <v>0.1209684857639479</v>
       </c>
       <c r="M191" t="n">
         <v>3.575097794157384</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1396095717498449</v>
+        <v>0.1392603382803886</v>
       </c>
       <c r="O191" t="n">
         <v>3.575097794157384</v>
@@ -6167,25 +6167,25 @@
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.0735513190360302</v>
+        <v>0.07321880855214218</v>
       </c>
       <c r="G192" t="n">
         <v>3.603471586174506</v>
       </c>
       <c r="J192" t="n">
-        <v>0.0735513190360302</v>
+        <v>0.07321880855214218</v>
       </c>
       <c r="K192" t="n">
         <v>3.603471586174506</v>
       </c>
       <c r="L192" t="n">
-        <v>0.1194891604012834</v>
+        <v>0.1204593510581102</v>
       </c>
       <c r="M192" t="n">
         <v>3.603471586174506</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1382872703828494</v>
+        <v>0.1389953678516773</v>
       </c>
       <c r="O192" t="n">
         <v>3.603471586174506</v>
@@ -6193,25 +6193,25 @@
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.07320821162798131</v>
+        <v>0.07351664225175253</v>
       </c>
       <c r="G193" t="n">
         <v>3.631845378191628</v>
       </c>
       <c r="J193" t="n">
-        <v>0.07320821162798131</v>
+        <v>0.07351664225175253</v>
       </c>
       <c r="K193" t="n">
         <v>3.631845378191628</v>
       </c>
       <c r="L193" t="n">
-        <v>0.1183718833064699</v>
+        <v>0.1188004219025111</v>
       </c>
       <c r="M193" t="n">
         <v>3.631845378191628</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1386355599073043</v>
+        <v>0.1386493586093952</v>
       </c>
       <c r="O193" t="n">
         <v>3.631845378191628</v>
@@ -6219,25 +6219,25 @@
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.07350418183442517</v>
+        <v>0.07251896891269688</v>
       </c>
       <c r="G194" t="n">
         <v>3.66021917020875</v>
       </c>
       <c r="J194" t="n">
-        <v>0.07350418183442517</v>
+        <v>0.07251896891269688</v>
       </c>
       <c r="K194" t="n">
         <v>3.66021917020875</v>
       </c>
       <c r="L194" t="n">
-        <v>0.1180963953285647</v>
+        <v>0.1185695853328863</v>
       </c>
       <c r="M194" t="n">
         <v>3.66021917020875</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1367303998129906</v>
+        <v>0.1373749017477224</v>
       </c>
       <c r="O194" t="n">
         <v>3.66021917020875</v>
@@ -6245,25 +6245,25 @@
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.07253516066152541</v>
+        <v>0.0724989003332603</v>
       </c>
       <c r="G195" t="n">
         <v>3.688592962225872</v>
       </c>
       <c r="J195" t="n">
-        <v>0.07253516066152541</v>
+        <v>0.0724989003332603</v>
       </c>
       <c r="K195" t="n">
         <v>3.688592962225872</v>
       </c>
       <c r="L195" t="n">
-        <v>0.1167555886833112</v>
+        <v>0.1176960283827338</v>
       </c>
       <c r="M195" t="n">
         <v>3.688592962225872</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1358176532210351</v>
+        <v>0.1352725838793233</v>
       </c>
       <c r="O195" t="n">
         <v>3.688592962225872</v>
@@ -6271,25 +6271,25 @@
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.07144271197107116</v>
+        <v>0.07222819266552817</v>
       </c>
       <c r="G196" t="n">
         <v>3.716966754242994</v>
       </c>
       <c r="J196" t="n">
-        <v>0.07144271197107116</v>
+        <v>0.07222819266552817</v>
       </c>
       <c r="K196" t="n">
         <v>3.716966754242994</v>
       </c>
       <c r="L196" t="n">
-        <v>0.1159244417000859</v>
+        <v>0.1174196380460766</v>
       </c>
       <c r="M196" t="n">
         <v>3.716966754242994</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1360563075981208</v>
+        <v>0.1362187952266218</v>
       </c>
       <c r="O196" t="n">
         <v>3.716966754242994</v>
@@ -6297,25 +6297,25 @@
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.07230666227077275</v>
+        <v>0.07194863760118088</v>
       </c>
       <c r="G197" t="n">
         <v>3.745340546260116</v>
       </c>
       <c r="J197" t="n">
-        <v>0.07230666227077275</v>
+        <v>0.07194863760118088</v>
       </c>
       <c r="K197" t="n">
         <v>3.745340546260116</v>
       </c>
       <c r="L197" t="n">
-        <v>0.1171500454539236</v>
+        <v>0.1154438077959699</v>
       </c>
       <c r="M197" t="n">
         <v>3.745340546260116</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1349906837809967</v>
+        <v>0.1349368651091015</v>
       </c>
       <c r="O197" t="n">
         <v>3.745340546260116</v>
@@ -6323,25 +6323,25 @@
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.07071492416581875</v>
+        <v>0.07087145181765978</v>
       </c>
       <c r="G198" t="n">
         <v>3.773714338277239</v>
       </c>
       <c r="J198" t="n">
-        <v>0.07071492416581875</v>
+        <v>0.07087145181765978</v>
       </c>
       <c r="K198" t="n">
         <v>3.773714338277239</v>
       </c>
       <c r="L198" t="n">
-        <v>0.1143741665895095</v>
+        <v>0.1146970945580994</v>
       </c>
       <c r="M198" t="n">
         <v>3.773714338277239</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1326871730869638</v>
+        <v>0.1350267454083963</v>
       </c>
       <c r="O198" t="n">
         <v>3.773714338277239</v>
@@ -6349,25 +6349,25 @@
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.070666988603929</v>
+        <v>0.07003073120353348</v>
       </c>
       <c r="G199" t="n">
         <v>3.802088130294361</v>
       </c>
       <c r="J199" t="n">
-        <v>0.070666988603929</v>
+        <v>0.07003073120353348</v>
       </c>
       <c r="K199" t="n">
         <v>3.802088130294361</v>
       </c>
       <c r="L199" t="n">
-        <v>0.1140574299028965</v>
+        <v>0.1142522431560211</v>
       </c>
       <c r="M199" t="n">
         <v>3.802088130294361</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1336742778714714</v>
+        <v>0.1326381461340199</v>
       </c>
       <c r="O199" t="n">
         <v>3.802088130294361</v>
@@ -6375,25 +6375,25 @@
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.07045549182576419</v>
+        <v>0.0708629114195722</v>
       </c>
       <c r="G200" t="n">
         <v>3.830461922311483</v>
       </c>
       <c r="J200" t="n">
-        <v>0.07045549182576419</v>
+        <v>0.0708629114195722</v>
       </c>
       <c r="K200" t="n">
         <v>3.830461922311483</v>
       </c>
       <c r="L200" t="n">
-        <v>0.1133533663229325</v>
+        <v>0.112818197240343</v>
       </c>
       <c r="M200" t="n">
         <v>3.830461922311483</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1309481611582517</v>
+        <v>0.1313045365590453</v>
       </c>
       <c r="O200" t="n">
         <v>3.830461922311483</v>
@@ -6401,25 +6401,25 @@
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.07042641069027851</v>
+        <v>0.07045432998093869</v>
       </c>
       <c r="G201" t="n">
         <v>3.858835714328605</v>
       </c>
       <c r="J201" t="n">
-        <v>0.07042641069027851</v>
+        <v>0.07045432998093869</v>
       </c>
       <c r="K201" t="n">
         <v>3.858835714328605</v>
       </c>
       <c r="L201" t="n">
-        <v>0.1137529084379331</v>
+        <v>0.1135266245540303</v>
       </c>
       <c r="M201" t="n">
         <v>3.858835714328605</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1319912231735715</v>
+        <v>0.1322666420613542</v>
       </c>
       <c r="O201" t="n">
         <v>3.858835714328605</v>
@@ -6427,25 +6427,25 @@
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.06928020332549058</v>
+        <v>0.06923165377866122</v>
       </c>
       <c r="G202" t="n">
         <v>3.887209506345727</v>
       </c>
       <c r="J202" t="n">
-        <v>0.06928020332549058</v>
+        <v>0.06923165377866122</v>
       </c>
       <c r="K202" t="n">
         <v>3.887209506345727</v>
       </c>
       <c r="L202" t="n">
-        <v>0.1133140665579603</v>
+        <v>0.1126844815071372</v>
       </c>
       <c r="M202" t="n">
         <v>3.887209506345727</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1295268690375806</v>
+        <v>0.1302697034812009</v>
       </c>
       <c r="O202" t="n">
         <v>3.887209506345727</v>
@@ -6453,25 +6453,25 @@
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.06915471479192707</v>
+        <v>0.069471748565141</v>
       </c>
       <c r="G203" t="n">
         <v>3.915583298362849</v>
       </c>
       <c r="J203" t="n">
-        <v>0.06915471479192707</v>
+        <v>0.069471748565141</v>
       </c>
       <c r="K203" t="n">
         <v>3.915583298362849</v>
       </c>
       <c r="L203" t="n">
-        <v>0.1123446000381053</v>
+        <v>0.1110374880448219</v>
       </c>
       <c r="M203" t="n">
         <v>3.915583298362849</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1294764749245277</v>
+        <v>0.1301498872766056</v>
       </c>
       <c r="O203" t="n">
         <v>3.915583298362849</v>
@@ -6479,25 +6479,25 @@
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.06792909426187196</v>
+        <v>0.06802498126728296</v>
       </c>
       <c r="G204" t="n">
         <v>3.943957090379971</v>
       </c>
       <c r="J204" t="n">
-        <v>0.06792909426187196</v>
+        <v>0.06802498126728296</v>
       </c>
       <c r="K204" t="n">
         <v>3.943957090379971</v>
       </c>
       <c r="L204" t="n">
-        <v>0.1105561946417948</v>
+        <v>0.1110224890959979</v>
       </c>
       <c r="M204" t="n">
         <v>3.943957090379971</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1284247648801732</v>
+        <v>0.1296216286073859</v>
       </c>
       <c r="O204" t="n">
         <v>3.943957090379971</v>
@@ -6505,25 +6505,25 @@
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.06836781553246032</v>
+        <v>0.06846991800488036</v>
       </c>
       <c r="G205" t="n">
         <v>3.972330882397093</v>
       </c>
       <c r="J205" t="n">
-        <v>0.06836781553246032</v>
+        <v>0.06846991800488036</v>
       </c>
       <c r="K205" t="n">
         <v>3.972330882397093</v>
       </c>
       <c r="L205" t="n">
-        <v>0.1112204816895366</v>
+        <v>0.1097088541110181</v>
       </c>
       <c r="M205" t="n">
         <v>3.972330882397093</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1266862602923612</v>
+        <v>0.1290780150298344</v>
       </c>
       <c r="O205" t="n">
         <v>3.972330882397093</v>
@@ -6531,25 +6531,25 @@
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.06765399733718742</v>
+        <v>0.06722777715396315</v>
       </c>
       <c r="G206" t="n">
         <v>4.000704674414215</v>
       </c>
       <c r="J206" t="n">
-        <v>0.06765399733718742</v>
+        <v>0.06722777715396315</v>
       </c>
       <c r="K206" t="n">
         <v>4.000704674414215</v>
       </c>
       <c r="L206" t="n">
-        <v>0.1096442432112917</v>
+        <v>0.1099513085053421</v>
       </c>
       <c r="M206" t="n">
         <v>4.000704674414215</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1282669195616772</v>
+        <v>0.1268304317608378</v>
       </c>
       <c r="O206" t="n">
         <v>4.000704674414215</v>
@@ -6557,25 +6557,25 @@
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.06661645007429376</v>
+        <v>0.06785382407123199</v>
       </c>
       <c r="G207" t="n">
         <v>4.029078466431337</v>
       </c>
       <c r="J207" t="n">
-        <v>0.06661645007429376</v>
+        <v>0.06785382407123199</v>
       </c>
       <c r="K207" t="n">
         <v>4.029078466431337</v>
       </c>
       <c r="L207" t="n">
-        <v>0.1100227954704302</v>
+        <v>0.1087146873304865</v>
       </c>
       <c r="M207" t="n">
         <v>4.029078466431337</v>
       </c>
       <c r="N207" t="n">
-        <v>0.125691328580301</v>
+        <v>0.1252617010371493</v>
       </c>
       <c r="O207" t="n">
         <v>4.029078466431337</v>
@@ -6583,25 +6583,25 @@
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.06697324000202291</v>
+        <v>0.06692644296868153</v>
       </c>
       <c r="G208" t="n">
         <v>4.05745225844846</v>
       </c>
       <c r="J208" t="n">
-        <v>0.06697324000202291</v>
+        <v>0.06692644296868153</v>
       </c>
       <c r="K208" t="n">
         <v>4.05745225844846</v>
       </c>
       <c r="L208" t="n">
-        <v>0.108313432879689</v>
+        <v>0.1079124726979433</v>
       </c>
       <c r="M208" t="n">
         <v>4.05745225844846</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1248261594538551</v>
+        <v>0.1264591876041017</v>
       </c>
       <c r="O208" t="n">
         <v>4.05745225844846</v>
@@ -6609,25 +6609,25 @@
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.06707927626439893</v>
+        <v>0.06606231934124661</v>
       </c>
       <c r="G209" t="n">
         <v>4.085826050465582</v>
       </c>
       <c r="J209" t="n">
-        <v>0.06707927626439893</v>
+        <v>0.06606231934124661</v>
       </c>
       <c r="K209" t="n">
         <v>4.085826050465582</v>
       </c>
       <c r="L209" t="n">
-        <v>0.1077864204419524</v>
+        <v>0.1066982128785141</v>
       </c>
       <c r="M209" t="n">
         <v>4.085826050465582</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1239446880303483</v>
+        <v>0.125668223595462</v>
       </c>
       <c r="O209" t="n">
         <v>4.085826050465582</v>
@@ -6635,25 +6635,25 @@
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.06566440112360242</v>
+        <v>0.06585607375899089</v>
       </c>
       <c r="G210" t="n">
         <v>4.114199842482703</v>
       </c>
       <c r="J210" t="n">
-        <v>0.06566440112360242</v>
+        <v>0.06585607375899089</v>
       </c>
       <c r="K210" t="n">
         <v>4.114199842482703</v>
       </c>
       <c r="L210" t="n">
-        <v>0.1074588749115178</v>
+        <v>0.1075017298965274</v>
       </c>
       <c r="M210" t="n">
         <v>4.114199842482703</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1248622147192849</v>
+        <v>0.1245765740848565</v>
       </c>
       <c r="O210" t="n">
         <v>4.114199842482703</v>
@@ -6661,25 +6661,25 @@
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.06512770609479138</v>
+        <v>0.06590334894089406</v>
       </c>
       <c r="G211" t="n">
         <v>4.142573634499826</v>
       </c>
       <c r="J211" t="n">
-        <v>0.06512770609479138</v>
+        <v>0.06590334894089406</v>
       </c>
       <c r="K211" t="n">
         <v>4.142573634499826</v>
       </c>
       <c r="L211" t="n">
-        <v>0.1062530226834705</v>
+        <v>0.1062423675468196</v>
       </c>
       <c r="M211" t="n">
         <v>4.142573634499826</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1239321309821365</v>
+        <v>0.1232775163775866</v>
       </c>
       <c r="O211" t="n">
         <v>4.142573634499826</v>
@@ -6687,25 +6687,25 @@
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.06567158049116729</v>
+        <v>0.06598542316973918</v>
       </c>
       <c r="G212" t="n">
         <v>4.170947426516948</v>
       </c>
       <c r="J212" t="n">
-        <v>0.06567158049116729</v>
+        <v>0.06598542316973918</v>
       </c>
       <c r="K212" t="n">
         <v>4.170947426516948</v>
       </c>
       <c r="L212" t="n">
-        <v>0.1063467203045486</v>
+        <v>0.1063043257578854</v>
       </c>
       <c r="M212" t="n">
         <v>4.170947426516948</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1228941103100293</v>
+        <v>0.1223412526709259</v>
       </c>
       <c r="O212" t="n">
         <v>4.170947426516948</v>
@@ -6713,25 +6713,25 @@
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.06525082646283908</v>
+        <v>0.0648475215838942</v>
       </c>
       <c r="G213" t="n">
         <v>4.19932121853407</v>
       </c>
       <c r="J213" t="n">
-        <v>0.06525082646283908</v>
+        <v>0.0648475215838942</v>
       </c>
       <c r="K213" t="n">
         <v>4.19932121853407</v>
       </c>
       <c r="L213" t="n">
-        <v>0.105528149592182</v>
+        <v>0.1045158891644393</v>
       </c>
       <c r="M213" t="n">
         <v>4.19932121853407</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1214338304808324</v>
+        <v>0.1218494067502182</v>
       </c>
       <c r="O213" t="n">
         <v>4.19932121853407</v>
@@ -6739,25 +6739,25 @@
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.06483268059800427</v>
+        <v>0.06502039502864945</v>
       </c>
       <c r="G214" t="n">
         <v>4.227695010551192</v>
       </c>
       <c r="J214" t="n">
-        <v>0.06483268059800427</v>
+        <v>0.06502039502864945</v>
       </c>
       <c r="K214" t="n">
         <v>4.227695010551192</v>
       </c>
       <c r="L214" t="n">
-        <v>0.1056804416624355</v>
+        <v>0.1056489641678974</v>
       </c>
       <c r="M214" t="n">
         <v>4.227695010551192</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1213836634264836</v>
+        <v>0.1204714615470261</v>
       </c>
       <c r="O214" t="n">
         <v>4.227695010551192</v>
@@ -6765,25 +6765,25 @@
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.06488194699669403</v>
+        <v>0.06471444321137836</v>
       </c>
       <c r="G215" t="n">
         <v>4.256068802568314</v>
       </c>
       <c r="J215" t="n">
-        <v>0.06488194699669403</v>
+        <v>0.06471444321137836</v>
       </c>
       <c r="K215" t="n">
         <v>4.256068802568314</v>
       </c>
       <c r="L215" t="n">
-        <v>0.1051100631465359</v>
+        <v>0.1038464449010584</v>
       </c>
       <c r="M215" t="n">
         <v>4.256068802568314</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1207640738394528</v>
+        <v>0.1218777762044518</v>
       </c>
       <c r="O215" t="n">
         <v>4.256068802568314</v>
@@ -6791,25 +6791,25 @@
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.06433507426655966</v>
+        <v>0.06445051951995392</v>
       </c>
       <c r="G216" t="n">
         <v>4.284442594585436</v>
       </c>
       <c r="J216" t="n">
-        <v>0.06433507426655966</v>
+        <v>0.06445051951995392</v>
       </c>
       <c r="K216" t="n">
         <v>4.284442594585436</v>
       </c>
       <c r="L216" t="n">
-        <v>0.1030906633650404</v>
+        <v>0.1034441408311973</v>
       </c>
       <c r="M216" t="n">
         <v>4.284442594585436</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1211877933230372</v>
+        <v>0.1208383058522369</v>
       </c>
       <c r="O216" t="n">
         <v>4.284442594585436</v>
@@ -6817,13 +6817,13 @@
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.06337971799499049</v>
+        <v>0.06423551023716388</v>
       </c>
       <c r="G217" t="n">
         <v>4.312816386602559</v>
       </c>
       <c r="J217" t="n">
-        <v>0.06337971799499049</v>
+        <v>0.06423551023716388</v>
       </c>
       <c r="K217" t="n">
         <v>4.312816386602559</v>
@@ -6835,7 +6835,7 @@
         <v>4.312816386602559</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1204834226702814</v>
+        <v>0.1194273926707809</v>
       </c>
       <c r="O217" t="n">
         <v>4.312816386602559</v>
@@ -6843,25 +6843,25 @@
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.06423641621003548</v>
+        <v>0.06391202199014125</v>
       </c>
       <c r="G218" t="n">
         <v>4.34119017861968</v>
       </c>
       <c r="J218" t="n">
-        <v>0.06423641621003548</v>
+        <v>0.06391202199014125</v>
       </c>
       <c r="K218" t="n">
         <v>4.34119017861968</v>
       </c>
       <c r="L218" t="n">
-        <v>0.1023219779367119</v>
+        <v>0.1041263255927906</v>
       </c>
       <c r="M218" t="n">
         <v>4.34119017861968</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1196374217976789</v>
+        <v>0.1205218542864929</v>
       </c>
       <c r="O218" t="n">
         <v>4.34119017861968</v>
@@ -6869,25 +6869,25 @@
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.06389509847497943</v>
+        <v>0.06290049898454003</v>
       </c>
       <c r="G219" t="n">
         <v>4.369563970636802</v>
       </c>
       <c r="J219" t="n">
-        <v>0.06389509847497943</v>
+        <v>0.06290049898454003</v>
       </c>
       <c r="K219" t="n">
         <v>4.369563970636802</v>
       </c>
       <c r="L219" t="n">
-        <v>0.1021456644510402</v>
+        <v>0.1026385760719963</v>
       </c>
       <c r="M219" t="n">
         <v>4.369563970636802</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1182028274607105</v>
+        <v>0.119940754229015</v>
       </c>
       <c r="O219" t="n">
         <v>4.369563970636802</v>
@@ -6895,25 +6895,25 @@
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.06368856799830271</v>
+        <v>0.06252130179266709</v>
       </c>
       <c r="G220" t="n">
         <v>4.397937762653925</v>
       </c>
       <c r="J220" t="n">
-        <v>0.06368856799830271</v>
+        <v>0.06252130179266709</v>
       </c>
       <c r="K220" t="n">
         <v>4.397937762653925</v>
       </c>
       <c r="L220" t="n">
-        <v>0.1015404753387089</v>
+        <v>0.101366604661759</v>
       </c>
       <c r="M220" t="n">
         <v>4.397937762653925</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1180593376496033</v>
+        <v>0.1179644918270288</v>
       </c>
       <c r="O220" t="n">
         <v>4.397937762653925</v>
@@ -6921,25 +6921,25 @@
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.06318164298570539</v>
+        <v>0.06272289423516267</v>
       </c>
       <c r="G221" t="n">
         <v>4.426311554671047</v>
       </c>
       <c r="J221" t="n">
-        <v>0.06318164298570539</v>
+        <v>0.06272289423516267</v>
       </c>
       <c r="K221" t="n">
         <v>4.426311554671047</v>
       </c>
       <c r="L221" t="n">
-        <v>0.101255275253071</v>
+        <v>0.1023350598785061</v>
       </c>
       <c r="M221" t="n">
         <v>4.426311554671047</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1190025931289473</v>
+        <v>0.1187428137035815</v>
       </c>
       <c r="O221" t="n">
         <v>4.426311554671047</v>
@@ -6947,25 +6947,25 @@
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.06215265368353517</v>
+        <v>0.06232164881439674</v>
       </c>
       <c r="G222" t="n">
         <v>4.454685346688168</v>
       </c>
       <c r="J222" t="n">
-        <v>0.06215265368353517</v>
+        <v>0.06232164881439674</v>
       </c>
       <c r="K222" t="n">
         <v>4.454685346688168</v>
       </c>
       <c r="L222" t="n">
-        <v>0.1019356437099939</v>
+        <v>0.1014892250453936</v>
       </c>
       <c r="M222" t="n">
         <v>4.454685346688168</v>
       </c>
       <c r="N222" t="n">
-        <v>0.116632820327802</v>
+        <v>0.1175619312288705</v>
       </c>
       <c r="O222" t="n">
         <v>4.454685346688168</v>
@@ -6973,25 +6973,25 @@
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.06295816130386782</v>
+        <v>0.06269009506601593</v>
       </c>
       <c r="G223" t="n">
         <v>4.483059138705291</v>
       </c>
       <c r="J223" t="n">
-        <v>0.06295816130386782</v>
+        <v>0.06269009506601593</v>
       </c>
       <c r="K223" t="n">
         <v>4.483059138705291</v>
       </c>
       <c r="L223" t="n">
-        <v>0.1010538591943328</v>
+        <v>0.1010639645802522</v>
       </c>
       <c r="M223" t="n">
         <v>4.483059138705291</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1177721440071907</v>
+        <v>0.1175027229496847</v>
       </c>
       <c r="O223" t="n">
         <v>4.483059138705291</v>
@@ -6999,25 +6999,25 @@
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.0619563103321005</v>
+        <v>0.06225435632287428</v>
       </c>
       <c r="G224" t="n">
         <v>4.511432930722413</v>
       </c>
       <c r="J224" t="n">
-        <v>0.0619563103321005</v>
+        <v>0.06225435632287428</v>
       </c>
       <c r="K224" t="n">
         <v>4.511432930722413</v>
       </c>
       <c r="L224" t="n">
-        <v>0.09974587425963759</v>
+        <v>0.1006114792229402</v>
       </c>
       <c r="M224" t="n">
         <v>4.511432930722413</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1174551738802797</v>
+        <v>0.1159150841860116</v>
       </c>
       <c r="O224" t="n">
         <v>4.511432930722413</v>
@@ -7025,25 +7025,25 @@
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.06149408226828652</v>
+        <v>0.06139512769559291</v>
       </c>
       <c r="G225" t="n">
         <v>4.539806722739535</v>
       </c>
       <c r="J225" t="n">
-        <v>0.06149408226828652</v>
+        <v>0.06139512769559291</v>
       </c>
       <c r="K225" t="n">
         <v>4.539806722739535</v>
       </c>
       <c r="L225" t="n">
-        <v>0.09979131864043721</v>
+        <v>0.1000218993445491</v>
       </c>
       <c r="M225" t="n">
         <v>4.539806722739535</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1154320363789005</v>
+        <v>0.1164198268845088</v>
       </c>
       <c r="O225" t="n">
         <v>4.539806722739535</v>
@@ -7051,25 +7051,25 @@
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.06141728995788009</v>
+        <v>0.06173146064873785</v>
       </c>
       <c r="G226" t="n">
         <v>4.568180514756657</v>
       </c>
       <c r="J226" t="n">
-        <v>0.06141728995788009</v>
+        <v>0.06173146064873785</v>
       </c>
       <c r="K226" t="n">
         <v>4.568180514756657</v>
       </c>
       <c r="L226" t="n">
-        <v>0.1003254538605897</v>
+        <v>0.09965641778925899</v>
       </c>
       <c r="M226" t="n">
         <v>4.568180514756657</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1166656413476412</v>
+        <v>0.1146978708318065</v>
       </c>
       <c r="O226" t="n">
         <v>4.568180514756657</v>
@@ -7077,25 +7077,25 @@
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.06112010911445081</v>
+        <v>0.06189323769074041</v>
       </c>
       <c r="G227" t="n">
         <v>4.596554306773779</v>
       </c>
       <c r="J227" t="n">
-        <v>0.06112010911445081</v>
+        <v>0.06189323769074041</v>
       </c>
       <c r="K227" t="n">
         <v>4.596554306773779</v>
       </c>
       <c r="L227" t="n">
-        <v>0.1002683885838957</v>
+        <v>0.09906488942521582</v>
       </c>
       <c r="M227" t="n">
         <v>4.596554306773779</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1144881310891618</v>
+        <v>0.1145688377273919</v>
       </c>
       <c r="O227" t="n">
         <v>4.596554306773779</v>
@@ -7103,25 +7103,25 @@
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.06057462738960544</v>
+        <v>0.06162586701335804</v>
       </c>
       <c r="G228" t="n">
         <v>4.624928098790901</v>
       </c>
       <c r="J228" t="n">
-        <v>0.06057462738960544</v>
+        <v>0.06162586701335804</v>
       </c>
       <c r="K228" t="n">
         <v>4.624928098790901</v>
       </c>
       <c r="L228" t="n">
-        <v>0.09990456936346546</v>
+        <v>0.09995410554422877</v>
       </c>
       <c r="M228" t="n">
         <v>4.624928098790901</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1146704141731739</v>
+        <v>0.1152331432963071</v>
       </c>
       <c r="O228" t="n">
         <v>4.624928098790901</v>
@@ -7129,25 +7129,25 @@
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.0609709627233043</v>
+        <v>0.06034390239774261</v>
       </c>
       <c r="G229" t="n">
         <v>4.653301890808024</v>
       </c>
       <c r="J229" t="n">
-        <v>0.0609709627233043</v>
+        <v>0.06034390239774261</v>
       </c>
       <c r="K229" t="n">
         <v>4.653301890808024</v>
       </c>
       <c r="L229" t="n">
-        <v>0.09854688487325061</v>
+        <v>0.09964228886092644</v>
       </c>
       <c r="M229" t="n">
         <v>4.653301890808024</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1139475720105673</v>
+        <v>0.1138789357860855</v>
       </c>
       <c r="O229" t="n">
         <v>4.653301890808024</v>
@@ -7155,25 +7155,25 @@
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.06035153880340233</v>
+        <v>0.06038186011510018</v>
       </c>
       <c r="G230" t="n">
         <v>4.681675682825145</v>
       </c>
       <c r="J230" t="n">
-        <v>0.06035153880340233</v>
+        <v>0.06038186011510018</v>
       </c>
       <c r="K230" t="n">
         <v>4.681675682825145</v>
       </c>
       <c r="L230" t="n">
-        <v>0.09899877402722662</v>
+        <v>0.09906758461388043</v>
       </c>
       <c r="M230" t="n">
         <v>4.681675682825145</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1137774212923631</v>
+        <v>0.1139141593049328</v>
       </c>
       <c r="O230" t="n">
         <v>4.681675682825145</v>
@@ -7181,25 +7181,25 @@
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.06055857320673193</v>
+        <v>0.06068542907080587</v>
       </c>
       <c r="G231" t="n">
         <v>4.710049474842267</v>
       </c>
       <c r="J231" t="n">
-        <v>0.06055857320673193</v>
+        <v>0.06068542907080587</v>
       </c>
       <c r="K231" t="n">
         <v>4.710049474842267</v>
       </c>
       <c r="L231" t="n">
-        <v>0.09779249868602687</v>
+        <v>0.09780229066546875</v>
       </c>
       <c r="M231" t="n">
         <v>4.710049474842267</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1134158403879188</v>
+        <v>0.1137563603250322</v>
       </c>
       <c r="O231" t="n">
         <v>4.710049474842267</v>
@@ -7207,25 +7207,25 @@
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.05981342036385912</v>
+        <v>0.0600781880193933</v>
       </c>
       <c r="G232" t="n">
         <v>4.73842326685939</v>
       </c>
       <c r="J232" t="n">
-        <v>0.05981342036385912</v>
+        <v>0.0600781880193933</v>
       </c>
       <c r="K232" t="n">
         <v>4.73842326685939</v>
       </c>
       <c r="L232" t="n">
-        <v>0.09690794066392568</v>
+        <v>0.09804918163601217</v>
       </c>
       <c r="M232" t="n">
         <v>4.73842326685939</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1128990686503284</v>
+        <v>0.1138940729609171</v>
       </c>
       <c r="O232" t="n">
         <v>4.73842326685939</v>
@@ -7233,25 +7233,25 @@
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.05962569308300248</v>
+        <v>0.0599853534414</v>
       </c>
       <c r="G233" t="n">
         <v>4.766797058876512</v>
       </c>
       <c r="J233" t="n">
-        <v>0.05962569308300248</v>
+        <v>0.0599853534414</v>
       </c>
       <c r="K233" t="n">
         <v>4.766797058876512</v>
       </c>
       <c r="L233" t="n">
-        <v>0.09642892335862652</v>
+        <v>0.09661354141019987</v>
       </c>
       <c r="M233" t="n">
         <v>4.766797058876512</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1120149905260495</v>
+        <v>0.1116883505335653</v>
       </c>
       <c r="O233" t="n">
         <v>4.766797058876512</v>
@@ -7259,25 +7259,25 @@
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.06012042082130225</v>
+        <v>0.06004876358552002</v>
       </c>
       <c r="G234" t="n">
         <v>4.795170850893633</v>
       </c>
       <c r="J234" t="n">
-        <v>0.06012042082130225</v>
+        <v>0.06004876358552002</v>
       </c>
       <c r="K234" t="n">
         <v>4.795170850893633</v>
       </c>
       <c r="L234" t="n">
-        <v>0.09763826773002447</v>
+        <v>0.09594433525726209</v>
       </c>
       <c r="M234" t="n">
         <v>4.795170850893633</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1129895586389509</v>
+        <v>0.1114187008227192</v>
       </c>
       <c r="O234" t="n">
         <v>4.795170850893633</v>
@@ -7285,25 +7285,25 @@
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.05970156322727119</v>
+        <v>0.05998710278834223</v>
       </c>
       <c r="G235" t="n">
         <v>4.823544642910756</v>
       </c>
       <c r="J235" t="n">
-        <v>0.05970156322727119</v>
+        <v>0.05998710278834223</v>
       </c>
       <c r="K235" t="n">
         <v>4.823544642910756</v>
       </c>
       <c r="L235" t="n">
-        <v>0.09623539459712764</v>
+        <v>0.09723824840856063</v>
       </c>
       <c r="M235" t="n">
         <v>4.823544642910756</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1122806784031288</v>
+        <v>0.111408812508112</v>
       </c>
       <c r="O235" t="n">
         <v>4.823544642910756</v>
@@ -7311,25 +7311,25 @@
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.05964184079945059</v>
+        <v>0.05919144534031325</v>
       </c>
       <c r="G236" t="n">
         <v>4.851918434927878</v>
       </c>
       <c r="J236" t="n">
-        <v>0.05964184079945059</v>
+        <v>0.05919144534031325</v>
       </c>
       <c r="K236" t="n">
         <v>4.851918434927878</v>
       </c>
       <c r="L236" t="n">
-        <v>0.09576597772271665</v>
+        <v>0.09584282874305788</v>
       </c>
       <c r="M236" t="n">
         <v>4.851918434927878</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1115222187973187</v>
+        <v>0.1114442701671059</v>
       </c>
       <c r="O236" t="n">
         <v>4.851918434927878</v>
@@ -7337,25 +7337,25 @@
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.05871513067945649</v>
+        <v>0.05940589692274421</v>
       </c>
       <c r="G237" t="n">
         <v>4.880292226945</v>
       </c>
       <c r="J237" t="n">
-        <v>0.05871513067945649</v>
+        <v>0.05940589692274421</v>
       </c>
       <c r="K237" t="n">
         <v>4.880292226945</v>
       </c>
       <c r="L237" t="n">
-        <v>0.09629612188954967</v>
+        <v>0.09615256774242749</v>
       </c>
       <c r="M237" t="n">
         <v>4.880292226945</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1100492160617518</v>
+        <v>0.1102378084683092</v>
       </c>
       <c r="O237" t="n">
         <v>4.880292226945</v>
@@ -7363,25 +7363,25 @@
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.05936632757626601</v>
+        <v>0.05914281420582133</v>
       </c>
       <c r="G238" t="n">
         <v>4.908666018962122</v>
       </c>
       <c r="J238" t="n">
-        <v>0.05936632757626601</v>
+        <v>0.05914281420582133</v>
       </c>
       <c r="K238" t="n">
         <v>4.908666018962122</v>
       </c>
       <c r="L238" t="n">
-        <v>0.09584106493136381</v>
+        <v>0.09448716210404051</v>
       </c>
       <c r="M238" t="n">
         <v>4.908666018962122</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1113180691326212</v>
+        <v>0.1098812791219738</v>
       </c>
       <c r="O238" t="n">
         <v>4.908666018962122</v>
@@ -7389,25 +7389,25 @@
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.05838414244561022</v>
+        <v>0.05803253664949091</v>
       </c>
       <c r="G239" t="n">
         <v>4.937039810979244</v>
       </c>
       <c r="J239" t="n">
-        <v>0.05838414244561022</v>
+        <v>0.05803253664949091</v>
       </c>
       <c r="K239" t="n">
         <v>4.937039810979244</v>
       </c>
       <c r="L239" t="n">
-        <v>0.09422191038147337</v>
+        <v>0.09481085669094522</v>
       </c>
       <c r="M239" t="n">
         <v>4.937039810979244</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1111691164241861</v>
+        <v>0.110365298526111</v>
       </c>
       <c r="O239" t="n">
         <v>4.937039810979244</v>
@@ -7415,25 +7415,25 @@
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.05829143924277555</v>
+        <v>0.05858336351782952</v>
       </c>
       <c r="G240" t="n">
         <v>4.965413602996366</v>
       </c>
       <c r="J240" t="n">
-        <v>0.05829143924277555</v>
+        <v>0.05858336351782952</v>
       </c>
       <c r="K240" t="n">
         <v>4.965413602996366</v>
       </c>
       <c r="L240" t="n">
-        <v>0.09522780170612612</v>
+        <v>0.09407318117261912</v>
       </c>
       <c r="M240" t="n">
         <v>4.965413602996366</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1106713776949059</v>
+        <v>0.1101447890619405</v>
       </c>
       <c r="O240" t="n">
         <v>4.965413602996366</v>
@@ -7441,25 +7441,25 @@
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.05765328416280022</v>
+        <v>0.05857820316006438</v>
       </c>
       <c r="G241" t="n">
         <v>4.993787395013489</v>
       </c>
       <c r="J241" t="n">
-        <v>0.05765328416280022</v>
+        <v>0.05857820316006438</v>
       </c>
       <c r="K241" t="n">
         <v>4.993787395013489</v>
       </c>
       <c r="L241" t="n">
-        <v>0.0945206878084059</v>
+        <v>0.09484128870480313</v>
       </c>
       <c r="M241" t="n">
         <v>4.993787395013489</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1099053128876947</v>
+        <v>0.1094462354992031</v>
       </c>
       <c r="O241" t="n">
         <v>4.993787395013489</v>
@@ -7467,25 +7467,25 @@
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.05789569507647706</v>
+        <v>0.05779716401067467</v>
       </c>
       <c r="G242" t="n">
         <v>5.02216118703061</v>
       </c>
       <c r="J242" t="n">
-        <v>0.05789569507647706</v>
+        <v>0.05779716401067467</v>
       </c>
       <c r="K242" t="n">
         <v>5.02216118703061</v>
       </c>
       <c r="L242" t="n">
-        <v>0.09325621182410916</v>
+        <v>0.09331258269565305</v>
       </c>
       <c r="M242" t="n">
         <v>5.02216118703061</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1095382824984937</v>
+        <v>0.1093422505751518</v>
       </c>
       <c r="O242" t="n">
         <v>5.02216118703061</v>
@@ -7493,25 +7493,25 @@
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.05748456819945449</v>
+        <v>0.05813137065458197</v>
       </c>
       <c r="G243" t="n">
         <v>5.050534979047733</v>
       </c>
       <c r="J243" t="n">
-        <v>0.05748456819945449</v>
+        <v>0.05813137065458197</v>
       </c>
       <c r="K243" t="n">
         <v>5.050534979047733</v>
       </c>
       <c r="L243" t="n">
-        <v>0.09316295264206821</v>
+        <v>0.09380887745439767</v>
       </c>
       <c r="M243" t="n">
         <v>5.050534979047733</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1074283408295331</v>
+        <v>0.1088715700548187</v>
       </c>
       <c r="O243" t="n">
         <v>5.050534979047733</v>
@@ -7519,25 +7519,25 @@
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.05750881745137163</v>
+        <v>0.05746853711095142</v>
       </c>
       <c r="G244" t="n">
         <v>5.078908771064855</v>
       </c>
       <c r="J244" t="n">
-        <v>0.05750881745137163</v>
+        <v>0.05746853711095142</v>
       </c>
       <c r="K244" t="n">
         <v>5.078908771064855</v>
       </c>
       <c r="L244" t="n">
-        <v>0.09276392574615436</v>
+        <v>0.09314636123691275</v>
       </c>
       <c r="M244" t="n">
         <v>5.078908771064855</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1086437519506478</v>
+        <v>0.1073570673883342</v>
       </c>
       <c r="O244" t="n">
         <v>5.078908771064855</v>
@@ -7545,25 +7545,25 @@
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.05751087091672414</v>
+        <v>0.0571267005925546</v>
       </c>
       <c r="G245" t="n">
         <v>5.107282563081977</v>
       </c>
       <c r="J245" t="n">
-        <v>0.05751087091672414</v>
+        <v>0.0571267005925546</v>
       </c>
       <c r="K245" t="n">
         <v>5.107282563081977</v>
       </c>
       <c r="L245" t="n">
-        <v>0.09352173695451871</v>
+        <v>0.09304771503197047</v>
       </c>
       <c r="M245" t="n">
         <v>5.107282563081977</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1068570430034884</v>
+        <v>0.1081068329801374</v>
       </c>
       <c r="O245" t="n">
         <v>5.107282563081977</v>
@@ -7571,25 +7571,25 @@
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.05746246269248807</v>
+        <v>0.05710250095940397</v>
       </c>
       <c r="G246" t="n">
         <v>5.135656355099099</v>
       </c>
       <c r="J246" t="n">
-        <v>0.05746246269248807</v>
+        <v>0.05710250095940397</v>
       </c>
       <c r="K246" t="n">
         <v>5.135656355099099</v>
       </c>
       <c r="L246" t="n">
-        <v>0.09288651220839687</v>
+        <v>0.09329403105745158</v>
       </c>
       <c r="M246" t="n">
         <v>5.135656355099099</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1070280018194496</v>
+        <v>0.1080371935308578</v>
       </c>
       <c r="O246" t="n">
         <v>5.135656355099099</v>
@@ -7597,25 +7597,25 @@
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.05676065541896869</v>
+        <v>0.05667524967804337</v>
       </c>
       <c r="G247" t="n">
         <v>5.164030147116221</v>
       </c>
       <c r="J247" t="n">
-        <v>0.05676065541896869</v>
+        <v>0.05667524967804337</v>
       </c>
       <c r="K247" t="n">
         <v>5.164030147116221</v>
       </c>
       <c r="L247" t="n">
-        <v>0.09243277662463747</v>
+        <v>0.0915467510074667</v>
       </c>
       <c r="M247" t="n">
         <v>5.164030147116221</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1069215356009068</v>
+        <v>0.1063331141022026</v>
       </c>
       <c r="O247" t="n">
         <v>5.164030147116221</v>
@@ -7623,25 +7623,25 @@
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.0568648462895503</v>
+        <v>0.05693293431144959</v>
       </c>
       <c r="G248" t="n">
         <v>5.192403939133343</v>
       </c>
       <c r="J248" t="n">
-        <v>0.0568648462895503</v>
+        <v>0.05693293431144959</v>
       </c>
       <c r="K248" t="n">
         <v>5.192403939133343</v>
       </c>
       <c r="L248" t="n">
-        <v>0.09255421117375205</v>
+        <v>0.09274735819100821</v>
       </c>
       <c r="M248" t="n">
         <v>5.192403939133343</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1059222943415411</v>
+        <v>0.1060182481059169</v>
       </c>
       <c r="O248" t="n">
         <v>5.192403939133343</v>
@@ -7649,25 +7649,25 @@
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.05632486005001094</v>
+        <v>0.05696382292378379</v>
       </c>
       <c r="G249" t="n">
         <v>5.220777731150466</v>
       </c>
       <c r="J249" t="n">
-        <v>0.05632486005001094</v>
+        <v>0.05696382292378379</v>
       </c>
       <c r="K249" t="n">
         <v>5.220777731150466</v>
       </c>
       <c r="L249" t="n">
-        <v>0.09184259425696512</v>
+        <v>0.09081601036906291</v>
       </c>
       <c r="M249" t="n">
         <v>5.220777731150466</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1055695816972289</v>
+        <v>0.1053039577497218</v>
       </c>
       <c r="O249" t="n">
         <v>5.220777731150466</v>
@@ -7675,25 +7675,25 @@
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.05653362873424181</v>
+        <v>0.05623495625388746</v>
       </c>
       <c r="G250" t="n">
         <v>5.249151523167587</v>
       </c>
       <c r="J250" t="n">
-        <v>0.05653362873424181</v>
+        <v>0.05623495625388746</v>
       </c>
       <c r="K250" t="n">
         <v>5.249151523167587</v>
       </c>
       <c r="L250" t="n">
-        <v>0.09092770198767415</v>
+        <v>0.09117434132398791</v>
       </c>
       <c r="M250" t="n">
         <v>5.249151523167587</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1059839410689612</v>
+        <v>0.1051368319386269</v>
       </c>
       <c r="O250" t="n">
         <v>5.249151523167587</v>
@@ -7701,25 +7701,25 @@
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.05610200258271066</v>
+        <v>0.05623117928302124</v>
       </c>
       <c r="G251" t="n">
         <v>5.277525315184709</v>
       </c>
       <c r="J251" t="n">
-        <v>0.05610200258271066</v>
+        <v>0.05623117928302124</v>
       </c>
       <c r="K251" t="n">
         <v>5.277525315184709</v>
       </c>
       <c r="L251" t="n">
-        <v>0.09186006679075692</v>
+        <v>0.09043983186316941</v>
       </c>
       <c r="M251" t="n">
         <v>5.277525315184709</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1050576426906461</v>
+        <v>0.1064401189530745</v>
       </c>
       <c r="O251" t="n">
         <v>5.277525315184709</v>
@@ -7727,25 +7727,25 @@
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.05612800943737745</v>
+        <v>0.05604404412955252</v>
       </c>
       <c r="G252" t="n">
         <v>5.305899107201832</v>
       </c>
       <c r="J252" t="n">
-        <v>0.05612800943737745</v>
+        <v>0.05604404412955252</v>
       </c>
       <c r="K252" t="n">
         <v>5.305899107201832</v>
       </c>
       <c r="L252" t="n">
-        <v>0.0904201385930118</v>
+        <v>0.08987571226932081</v>
       </c>
       <c r="M252" t="n">
         <v>5.305899107201832</v>
       </c>
       <c r="N252" t="n">
-        <v>0.104550242990501</v>
+        <v>0.1054022117714095</v>
       </c>
       <c r="O252" t="n">
         <v>5.305899107201832</v>
@@ -7753,25 +7753,25 @@
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.05568659079772703</v>
+        <v>0.05606598045550135</v>
       </c>
       <c r="G253" t="n">
         <v>5.334272899218954</v>
       </c>
       <c r="J253" t="n">
-        <v>0.05568659079772703</v>
+        <v>0.05606598045550135</v>
       </c>
       <c r="K253" t="n">
         <v>5.334272899218954</v>
       </c>
       <c r="L253" t="n">
-        <v>0.09034857417736156</v>
+        <v>0.09031239857208534</v>
       </c>
       <c r="M253" t="n">
         <v>5.334272899218954</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1057785910480849</v>
+        <v>0.1045834711888697</v>
       </c>
       <c r="O253" t="n">
         <v>5.334272899218954</v>
@@ -7779,25 +7779,25 @@
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.05546083875242457</v>
+        <v>0.05532737238021378</v>
       </c>
       <c r="G254" t="n">
         <v>5.362646691236075</v>
       </c>
       <c r="J254" t="n">
-        <v>0.05546083875242457</v>
+        <v>0.05532737238021378</v>
       </c>
       <c r="K254" t="n">
         <v>5.362646691236075</v>
       </c>
       <c r="L254" t="n">
-        <v>0.09092888694780768</v>
+        <v>0.09073958322758323</v>
       </c>
       <c r="M254" t="n">
         <v>5.362646691236075</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1044415838803617</v>
+        <v>0.1045878752434757</v>
       </c>
       <c r="O254" t="n">
         <v>5.362646691236075</v>
@@ -7805,25 +7805,25 @@
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.05494981900564742</v>
+        <v>0.05518263373360437</v>
       </c>
       <c r="G255" t="n">
         <v>5.391020483253198</v>
       </c>
       <c r="J255" t="n">
-        <v>0.05494981900564742</v>
+        <v>0.05518263373360437</v>
       </c>
       <c r="K255" t="n">
         <v>5.391020483253198</v>
       </c>
       <c r="L255" t="n">
-        <v>0.08989055939121053</v>
+        <v>0.09016012324384312</v>
       </c>
       <c r="M255" t="n">
         <v>5.391020483253198</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1043451395336168</v>
+        <v>0.1039285089106038</v>
       </c>
       <c r="O255" t="n">
         <v>5.391020483253198</v>
@@ -7831,25 +7831,25 @@
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.05580845582430966</v>
+        <v>0.05574767433776833</v>
       </c>
       <c r="G256" t="n">
         <v>5.41939427527032</v>
       </c>
       <c r="J256" t="n">
-        <v>0.05580845582430966</v>
+        <v>0.05574767433776833</v>
       </c>
       <c r="K256" t="n">
         <v>5.41939427527032</v>
       </c>
       <c r="L256" t="n">
-        <v>0.08949737502977341</v>
+        <v>0.09037515152626238</v>
       </c>
       <c r="M256" t="n">
         <v>5.41939427527032</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1038577567237782</v>
+        <v>0.1042211498543723</v>
       </c>
       <c r="O256" t="n">
         <v>5.41939427527032</v>
@@ -7857,25 +7857,25 @@
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.05558923464418679</v>
+        <v>0.05550110268280084</v>
       </c>
       <c r="G257" t="n">
         <v>5.447768067287442</v>
       </c>
       <c r="J257" t="n">
-        <v>0.05558923464418679</v>
+        <v>0.05550110268280084</v>
       </c>
       <c r="K257" t="n">
         <v>5.447768067287442</v>
       </c>
       <c r="L257" t="n">
-        <v>0.08893969439605642</v>
+        <v>0.08957363860869774</v>
       </c>
       <c r="M257" t="n">
         <v>5.447768067287442</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1027244926464012</v>
+        <v>0.1037180998296812</v>
       </c>
       <c r="O257" t="n">
         <v>5.447768067287442</v>
@@ -7883,25 +7883,25 @@
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.05541154405001023</v>
+        <v>0.05510403771101503</v>
       </c>
       <c r="G258" t="n">
         <v>5.476141859304565</v>
       </c>
       <c r="J258" t="n">
-        <v>0.05541154405001023</v>
+        <v>0.05510403771101503</v>
       </c>
       <c r="K258" t="n">
         <v>5.476141859304565</v>
       </c>
       <c r="L258" t="n">
-        <v>0.08915374719480577</v>
+        <v>0.08950089137817213</v>
       </c>
       <c r="M258" t="n">
         <v>5.476141859304565</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1037785775739656</v>
+        <v>0.1031285427373023</v>
       </c>
       <c r="O258" t="n">
         <v>5.476141859304565</v>
@@ -7909,25 +7909,25 @@
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.05422944516939787</v>
+        <v>0.05509440098776703</v>
       </c>
       <c r="G259" t="n">
         <v>5.504515651321686</v>
       </c>
       <c r="J259" t="n">
-        <v>0.05422944516939787</v>
+        <v>0.05509440098776703</v>
       </c>
       <c r="K259" t="n">
         <v>5.504515651321686</v>
       </c>
       <c r="L259" t="n">
-        <v>0.08846422422443938</v>
+        <v>0.08916526482166384</v>
       </c>
       <c r="M259" t="n">
         <v>5.504515651321686</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1036260205506299</v>
+        <v>0.1031939883029501</v>
       </c>
       <c r="O259" t="n">
         <v>5.504515651321686</v>
@@ -7935,25 +7935,25 @@
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.05429527441796377</v>
+        <v>0.05422977951516767</v>
       </c>
       <c r="G260" t="n">
         <v>5.532889443338808</v>
       </c>
       <c r="J260" t="n">
-        <v>0.05429527441796377</v>
+        <v>0.05422977951516767</v>
       </c>
       <c r="K260" t="n">
         <v>5.532889443338808</v>
       </c>
       <c r="L260" t="n">
-        <v>0.0888965941058546</v>
+        <v>0.08764913990910646</v>
       </c>
       <c r="M260" t="n">
         <v>5.532889443338808</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1029445794842635</v>
+        <v>0.1031291782520177</v>
       </c>
       <c r="O260" t="n">
         <v>5.532889443338808</v>
@@ -7961,25 +7961,25 @@
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.05455850120437507</v>
+        <v>0.05458570971285522</v>
       </c>
       <c r="G261" t="n">
         <v>5.561263235355931</v>
       </c>
       <c r="J261" t="n">
-        <v>0.05455850120437507</v>
+        <v>0.05458570971285522</v>
       </c>
       <c r="K261" t="n">
         <v>5.561263235355931</v>
       </c>
       <c r="L261" t="n">
-        <v>0.08861498016484473</v>
+        <v>0.08737123019438454</v>
       </c>
       <c r="M261" t="n">
         <v>5.561263235355931</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1012891883868202</v>
+        <v>0.1014527889333767</v>
       </c>
       <c r="O261" t="n">
         <v>5.561263235355931</v>
@@ -7987,25 +7987,25 @@
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.05394316854851103</v>
+        <v>0.05476246229733674</v>
       </c>
       <c r="G262" t="n">
         <v>5.589637027373053</v>
       </c>
       <c r="J262" t="n">
-        <v>0.05394316854851103</v>
+        <v>0.05476246229733674</v>
       </c>
       <c r="K262" t="n">
         <v>5.589637027373053</v>
       </c>
       <c r="L262" t="n">
-        <v>0.08873399929389414</v>
+        <v>0.08789846257737914</v>
       </c>
       <c r="M262" t="n">
         <v>5.589637027373053</v>
       </c>
       <c r="N262" t="n">
-        <v>0.1023896817972331</v>
+        <v>0.1020940230526229</v>
       </c>
       <c r="O262" t="n">
         <v>5.589637027373053</v>
@@ -8013,25 +8013,25 @@
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.05447495984020778</v>
+        <v>0.05398263474879266</v>
       </c>
       <c r="G263" t="n">
         <v>5.618010819390174</v>
       </c>
       <c r="J263" t="n">
-        <v>0.05447495984020778</v>
+        <v>0.05398263474879266</v>
       </c>
       <c r="K263" t="n">
         <v>5.618010819390174</v>
       </c>
       <c r="L263" t="n">
-        <v>0.08825052353950594</v>
+        <v>0.08707536999142944</v>
       </c>
       <c r="M263" t="n">
         <v>5.618010819390174</v>
       </c>
       <c r="N263" t="n">
-        <v>0.1023795486413187</v>
+        <v>0.1019017570827702</v>
       </c>
       <c r="O263" t="n">
         <v>5.618010819390174</v>
@@ -8039,25 +8039,25 @@
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.05420198842768357</v>
+        <v>0.05414264515380038</v>
       </c>
       <c r="G264" t="n">
         <v>5.646384611407297</v>
       </c>
       <c r="J264" t="n">
-        <v>0.05420198842768357</v>
+        <v>0.05414264515380038</v>
       </c>
       <c r="K264" t="n">
         <v>5.646384611407297</v>
       </c>
       <c r="L264" t="n">
-        <v>0.08803555883393406</v>
+        <v>0.08809677358627713</v>
       </c>
       <c r="M264" t="n">
         <v>5.646384611407297</v>
       </c>
       <c r="N264" t="n">
-        <v>0.1018665739276883</v>
+        <v>0.1020287657062576</v>
       </c>
       <c r="O264" t="n">
         <v>5.646384611407297</v>
